--- a/export2.xlsx
+++ b/export2.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13665" windowWidth="26775" xWindow="29010" yWindow="2280"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="480"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tblAdditionalInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tblTabsOrder" sheetId="2" state="veryHidden" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bid Breakdown_MetaData" sheetId="3" state="veryHidden" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bid Breakdown" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>tblAdditionalInfo</t>
   </si>
@@ -332,6 +333,9 @@
   </si>
   <si>
     <t>Bid Item:  || Base Bid</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t xml:space="preserve"> || Electrical Utility</t>
@@ -1728,7 +1732,7 @@
   <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AE1" sqref="AE1:AF1048576"/>
+      <selection activeCell="X1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
@@ -1935,18 +1939,16 @@
       <c r="Z3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="7">
-        <f>Q2/P2</f>
-        <v/>
-      </c>
-      <c r="AF3" s="7">
-        <f>P2/Z2</f>
-        <v/>
+      <c r="AE3" s="7" t="n">
+        <v>78.77419321349434</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>17718.49</v>
@@ -1991,20 +1993,18 @@
         <v>1312.4</v>
       </c>
       <c r="AD4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE4" s="7">
-        <f>Q3/P3</f>
-        <v/>
-      </c>
-      <c r="AF4" s="7">
-        <f>P3/Z3</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE4" s="7" t="n">
+        <v>86.04350827191556</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>23082.52</v>
@@ -2049,20 +2049,18 @@
         <v>1709.82</v>
       </c>
       <c r="AD5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE5" s="7">
-        <f>Q4/P4</f>
-        <v/>
-      </c>
-      <c r="AF5" s="7">
-        <f>P4/Z4</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE5" s="7" t="n">
+        <v>92.61043485445182</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>10858.15</v>
@@ -2107,20 +2105,18 @@
         <v>804.3099999999999</v>
       </c>
       <c r="AD6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE6" s="7">
-        <f>Q5/P5</f>
-        <v/>
-      </c>
-      <c r="AF6" s="7">
-        <f>P5/Z5</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE6" s="7" t="n">
+        <v>79.21492738362883</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>33420.73</v>
@@ -2165,20 +2161,18 @@
         <v>2475.61</v>
       </c>
       <c r="AD7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE7" s="7">
-        <f>Q6/P6</f>
-        <v/>
-      </c>
-      <c r="AF7" s="7">
-        <f>P6/Z6</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE7" s="7" t="n">
+        <v>76.39629826788421</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>343502.09</v>
@@ -2226,20 +2220,18 @@
         <v>25444.6</v>
       </c>
       <c r="AD8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE8" s="7">
-        <f>Q7/P7</f>
-        <v/>
-      </c>
-      <c r="AF8" s="7">
-        <f>P7/Z7</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE8" s="7" t="n">
+        <v>76.46518480642565</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>271072.05</v>
@@ -2284,20 +2276,18 @@
         <v>20079.41</v>
       </c>
       <c r="AD9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE9" s="7">
-        <f>Q8/P8</f>
-        <v/>
-      </c>
-      <c r="AF9" s="7">
-        <f>P8/Z8</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE9" s="7" t="n">
+        <v>80.78043677142801</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2554.74</v>
@@ -2342,20 +2332,18 @@
         <v>189.24</v>
       </c>
       <c r="AD10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE10" s="7">
-        <f>Q9/P9</f>
-        <v/>
-      </c>
-      <c r="AF10" s="7">
-        <f>P9/Z9</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE10" s="7" t="n">
+        <v>76.5871757925072</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>134628.47</v>
@@ -2403,20 +2391,18 @@
         <v>9972.48</v>
       </c>
       <c r="AD11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE11" s="7">
-        <f>Q10/P10</f>
-        <v/>
-      </c>
-      <c r="AF11" s="7">
-        <f>P10/Z10</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE11" s="7" t="n">
+        <v>78.94320730795488</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>13088.93</v>
@@ -2461,20 +2447,18 @@
         <v>969.55</v>
       </c>
       <c r="AD12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE12" s="7">
-        <f>Q11/P11</f>
-        <v/>
-      </c>
-      <c r="AF12" s="7">
-        <f>P11/Z11</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE12" s="7" t="n">
+        <v>86.97506982517844</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>507457.26</v>
@@ -2519,20 +2503,18 @@
         <v>37589.43</v>
       </c>
       <c r="AD13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE13" s="7">
-        <f>Q12/P12</f>
-        <v/>
-      </c>
-      <c r="AF13" s="7">
-        <f>P12/Z12</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE13" s="7" t="n">
+        <v>81.76436600647931</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2926.41</v>
@@ -2577,20 +2559,18 @@
         <v>216.77</v>
       </c>
       <c r="AD14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE14" s="7">
-        <f>Q13/P13</f>
-        <v/>
-      </c>
-      <c r="AF14" s="7">
-        <f>P13/Z13</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE14" s="7" t="n">
+        <v>85.44885361552028</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>73400.10000000001</v>
@@ -2635,20 +2615,18 @@
         <v>5437.04</v>
       </c>
       <c r="AD15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE15" s="7">
-        <f>Q14/P14</f>
-        <v/>
-      </c>
-      <c r="AF15" s="7">
-        <f>P14/Z14</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE15" s="7" t="n">
+        <v>86.45063055901883</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>795517.4300000001</v>
@@ -2696,20 +2674,18 @@
         <v>58927.22</v>
       </c>
       <c r="AD16" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE16" s="7">
-        <f>Q15/P15</f>
-        <v/>
-      </c>
-      <c r="AF16" s="7">
-        <f>P15/Z15</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE16" s="7" t="n">
+        <v>80.05861580031198</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>25277.84</v>
@@ -2754,20 +2730,18 @@
         <v>1872.43</v>
       </c>
       <c r="AD17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE17" s="7">
-        <f>Q16/P16</f>
-        <v/>
-      </c>
-      <c r="AF17" s="7">
-        <f>P16/Z16</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE17" s="7" t="n">
+        <v>79.28473065025601</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>118152.69</v>
@@ -2812,20 +2786,18 @@
         <v>8752.049999999999</v>
       </c>
       <c r="AD18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE18" s="7">
-        <f>Q17/P17</f>
-        <v/>
-      </c>
-      <c r="AF18" s="7">
-        <f>P17/Z17</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE18" s="7" t="n">
+        <v>81.3509519749929</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1486389.63</v>
@@ -2873,20 +2845,18 @@
         <v>110102.94</v>
       </c>
       <c r="AD19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE19" s="7">
-        <f>Q18/P18</f>
-        <v/>
-      </c>
-      <c r="AF19" s="7">
-        <f>P18/Z18</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE19" s="7" t="n">
+        <v>76.38777747603218</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>154142.46</v>
@@ -2934,20 +2904,18 @@
         <v>11417.96</v>
       </c>
       <c r="AD20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE20" s="7">
-        <f>Q19/P19</f>
-        <v/>
-      </c>
-      <c r="AF20" s="7">
-        <f>P19/Z19</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE20" s="7" t="n">
+        <v>79.12129991855483</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>651704.13</v>
@@ -2995,20 +2963,18 @@
         <v>48274.38</v>
       </c>
       <c r="AD21" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE21" s="7">
-        <f>Q20/P20</f>
-        <v/>
-      </c>
-      <c r="AF21" s="7">
-        <f>P20/Z20</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE21" s="7" t="n">
+        <v>80.25944267144723</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>674025.4399999999</v>
@@ -3056,20 +3022,18 @@
         <v>49927.81</v>
       </c>
       <c r="AD22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE22" s="7">
-        <f>Q21/P21</f>
-        <v/>
-      </c>
-      <c r="AF22" s="7">
-        <f>P21/Z21</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE22" s="7" t="n">
+        <v>77.00658576079354</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>34851.06</v>
@@ -3117,20 +3081,18 @@
         <v>2581.56</v>
       </c>
       <c r="AD23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE23" s="7">
-        <f>Q22/P22</f>
-        <v/>
-      </c>
-      <c r="AF23" s="7">
-        <f>P22/Z22</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE23" s="7" t="n">
+        <v>76.56259677551871</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1471.74</v>
@@ -3175,20 +3137,18 @@
         <v>109.02</v>
       </c>
       <c r="AD24" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE24" s="7">
-        <f>Q23/P23</f>
-        <v/>
-      </c>
-      <c r="AF24" s="7">
-        <f>P23/Z23</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE24" s="7" t="n">
+        <v>77.99481072450268</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>58762.25</v>
@@ -3236,20 +3196,18 @@
         <v>4352.76</v>
       </c>
       <c r="AD25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE25" s="7">
-        <f>Q24/P24</f>
-        <v/>
-      </c>
-      <c r="AF25" s="7">
-        <f>P24/Z24</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE25" s="7" t="n">
+        <v>78.654322019064</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>27436.34</v>
@@ -3294,20 +3252,18 @@
         <v>2032.32</v>
       </c>
       <c r="AD26" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE26" s="7">
-        <f>Q25/P25</f>
-        <v/>
-      </c>
-      <c r="AF26" s="7">
-        <f>P25/Z25</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE26" s="7" t="n">
+        <v>79.77238437825116</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>6140.51</v>
@@ -3352,20 +3308,18 @@
         <v>454.85</v>
       </c>
       <c r="AD27" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE27" s="7">
-        <f>Q26/P26</f>
-        <v/>
-      </c>
-      <c r="AF27" s="7">
-        <f>P26/Z26</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE27" s="7" t="n">
+        <v>82.58966878325039</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>7959.05</v>
@@ -3410,20 +3364,18 @@
         <v>589.5599999999999</v>
       </c>
       <c r="AD28" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE28" s="7">
-        <f>Q27/P27</f>
-        <v/>
-      </c>
-      <c r="AF28" s="7">
-        <f>P27/Z27</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE28" s="7" t="n">
+        <v>76.93010474893137</v>
+      </c>
+      <c r="AF28" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>35716.52</v>
@@ -3468,20 +3420,18 @@
         <v>2645.67</v>
       </c>
       <c r="AD29" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE29" s="7">
-        <f>Q28/P28</f>
-        <v/>
-      </c>
-      <c r="AF29" s="7">
-        <f>P28/Z28</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE29" s="7" t="n">
+        <v>77.04412573084802</v>
+      </c>
+      <c r="AF29" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>546218.72</v>
@@ -3529,20 +3479,18 @@
         <v>40460.65</v>
       </c>
       <c r="AD30" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE30" s="7">
-        <f>Q29/P29</f>
-        <v/>
-      </c>
-      <c r="AF30" s="7">
-        <f>P29/Z29</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE30" s="7" t="n">
+        <v>78.50008325876146</v>
+      </c>
+      <c r="AF30" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>16306.67</v>
@@ -3587,20 +3535,18 @@
         <v>1207.9</v>
       </c>
       <c r="AD31" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE31" s="7">
-        <f>Q30/P30</f>
-        <v/>
-      </c>
-      <c r="AF31" s="7">
-        <f>P30/Z30</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE31" s="7" t="n">
+        <v>77.11609924118521</v>
+      </c>
+      <c r="AF31" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1682.46</v>
@@ -3645,20 +3591,18 @@
         <v>124.63</v>
       </c>
       <c r="AD32" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE32" s="7">
-        <f>Q31/P31</f>
-        <v/>
-      </c>
-      <c r="AF32" s="7">
-        <f>P31/Z31</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE32" s="7" t="n">
+        <v>81.37150466045273</v>
+      </c>
+      <c r="AF32" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:32">
       <c r="B33" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>28751.22</v>
@@ -3670,20 +3614,18 @@
         <v>2129.72</v>
       </c>
       <c r="AD33" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE33" s="7">
-        <f>Q32/P32</f>
-        <v/>
-      </c>
-      <c r="AF33" s="7">
-        <f>P32/Z32</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:32">
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>26898.36</v>
@@ -3728,20 +3670,18 @@
         <v>1992.47</v>
       </c>
       <c r="AD34" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE34" s="7">
-        <f>Q33/P33</f>
-        <v/>
-      </c>
-      <c r="AF34" s="7">
-        <f>P33/Z33</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE34" s="7" t="n">
+        <v>76.39662710593886</v>
+      </c>
+      <c r="AF34" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:32">
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>16298.61</v>
@@ -3786,20 +3726,18 @@
         <v>1207.3</v>
       </c>
       <c r="AD35" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE35" s="7">
-        <f>Q34/P34</f>
-        <v/>
-      </c>
-      <c r="AF35" s="7">
-        <f>P34/Z34</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE35" s="7" t="n">
+        <v>76.8125837825504</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:32">
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>119556.31</v>
@@ -3811,20 +3749,18 @@
         <v>8856.02</v>
       </c>
       <c r="AD36" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE36" s="7">
-        <f>Q35/P35</f>
-        <v/>
-      </c>
-      <c r="AF36" s="7">
-        <f>P35/Z35</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="AE36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF36" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>120.99</v>
@@ -3895,18 +3831,16 @@
       <c r="Z37" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE37" s="7">
-        <f>Q36/P36</f>
-        <v/>
-      </c>
-      <c r="AF37" s="7">
-        <f>P36/Z36</f>
-        <v/>
+      <c r="AE37" s="7" t="n">
+        <v>73.228285933897</v>
+      </c>
+      <c r="AF37" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:32">
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>120.99</v>
@@ -3930,20 +3864,18 @@
         <v>8.960000000000001</v>
       </c>
       <c r="AD38" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE38" s="7">
-        <f>Q37/P37</f>
-        <v/>
-      </c>
-      <c r="AF38" s="7">
-        <f>P37/Z37</f>
-        <v/>
+        <v>141</v>
+      </c>
+      <c r="AE38" s="7" t="n">
+        <v>73.228285933897</v>
+      </c>
+      <c r="AF38" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1011.32</v>
@@ -4014,18 +3946,16 @@
       <c r="Z39" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE39" s="7">
-        <f>Q38/P38</f>
-        <v/>
-      </c>
-      <c r="AF39" s="7">
-        <f>P38/Z38</f>
-        <v/>
+      <c r="AE39" s="7" t="n">
+        <v>73.22691197691199</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:32">
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1011.32</v>
@@ -4049,20 +3979,18 @@
         <v>74.91</v>
       </c>
       <c r="AD40" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE40" s="7">
-        <f>Q39/P39</f>
-        <v/>
-      </c>
-      <c r="AF40" s="7">
-        <f>P39/Z39</f>
-        <v/>
+        <v>143</v>
+      </c>
+      <c r="AE40" s="7" t="n">
+        <v>73.22691197691199</v>
+      </c>
+      <c r="AF40" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>693.46</v>
@@ -4133,18 +4061,16 @@
       <c r="Z41" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE41" s="7">
-        <f>Q40/P40</f>
-        <v/>
-      </c>
-      <c r="AF41" s="7">
-        <f>P40/Z40</f>
-        <v/>
+      <c r="AE41" s="7" t="n">
+        <v>73.22745901639344</v>
+      </c>
+      <c r="AF41" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:32">
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>693.46</v>
@@ -4168,20 +4094,18 @@
         <v>51.37</v>
       </c>
       <c r="AD42" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE42" s="7">
-        <f>Q41/P41</f>
-        <v/>
-      </c>
-      <c r="AF42" s="7">
-        <f>P41/Z41</f>
-        <v/>
+        <v>145</v>
+      </c>
+      <c r="AE42" s="7" t="n">
+        <v>73.22745901639344</v>
+      </c>
+      <c r="AF42" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>-35678.73</v>
@@ -4252,18 +4176,16 @@
       <c r="Z43" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" s="7">
-        <f>Q42/P42</f>
-        <v/>
-      </c>
-      <c r="AF43" s="7">
-        <f>P42/Z42</f>
-        <v/>
+      <c r="AE43" s="7" t="n">
+        <v>73.22718423043165</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:32">
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>-35678.73</v>
@@ -4287,20 +4209,18 @@
         <v>-2642.87</v>
       </c>
       <c r="AD44" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE44" s="7">
-        <f>Q43/P43</f>
-        <v/>
-      </c>
-      <c r="AF44" s="7">
-        <f>P43/Z43</f>
-        <v/>
+        <v>147</v>
+      </c>
+      <c r="AE44" s="7" t="n">
+        <v>73.22718423043165</v>
+      </c>
+      <c r="AF44" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>135355.04</v>
@@ -4371,18 +4291,16 @@
       <c r="Z45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE45" s="7">
-        <f>Q44/P44</f>
-        <v/>
-      </c>
-      <c r="AF45" s="7">
-        <f>P44/Z44</f>
-        <v/>
+      <c r="AE45" s="7" t="n">
+        <v>73.22718895266335</v>
+      </c>
+      <c r="AF45" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:32">
       <c r="B46" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>42725.71</v>
@@ -4406,20 +4324,18 @@
         <v>3164.87</v>
       </c>
       <c r="AD46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE46" s="7">
-        <f>Q45/P45</f>
-        <v/>
-      </c>
-      <c r="AF46" s="7">
-        <f>P45/Z45</f>
-        <v/>
+        <v>149</v>
+      </c>
+      <c r="AE46" s="7" t="n">
+        <v>73.22718665264874</v>
+      </c>
+      <c r="AF46" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:32">
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>92629.33</v>
@@ -4443,20 +4359,18 @@
         <v>6861.43</v>
       </c>
       <c r="AD47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE47" s="7">
-        <f>Q46/P46</f>
-        <v/>
-      </c>
-      <c r="AF47" s="7">
-        <f>P46/Z46</f>
-        <v/>
+        <v>149</v>
+      </c>
+      <c r="AE47" s="7" t="n">
+        <v>73.22719000369561</v>
+      </c>
+      <c r="AF47" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>-50548.75</v>
@@ -4527,18 +4441,16 @@
       <c r="Z48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE48" s="7">
-        <f>Q47/P47</f>
-        <v/>
-      </c>
-      <c r="AF48" s="7">
-        <f>P47/Z47</f>
-        <v/>
+      <c r="AE48" s="7" t="n">
+        <v>73.2271939262106</v>
+      </c>
+      <c r="AF48" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:32">
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>-50548.75</v>
@@ -4562,20 +4474,18 @@
         <v>-3744.35</v>
       </c>
       <c r="AD49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE49" s="7">
-        <f>Q48/P48</f>
-        <v/>
-      </c>
-      <c r="AF49" s="7">
-        <f>P48/Z48</f>
-        <v/>
+        <v>151</v>
+      </c>
+      <c r="AE49" s="7" t="n">
+        <v>73.2271939262106</v>
+      </c>
+      <c r="AF49" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:32">
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>6317922.71</v>
@@ -4625,13 +4535,11 @@
       <c r="W50" s="4" t="n">
         <v>467994.2</v>
       </c>
-      <c r="AE50" s="7">
-        <f>Q49/P49</f>
-        <v/>
-      </c>
-      <c r="AF50" s="7">
-        <f>P49/Z49</f>
-        <v/>
+      <c r="AE50" s="7" t="n">
+        <v>78.64099765663585</v>
+      </c>
+      <c r="AF50" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4643,4 +4551,22 @@
   <pageMargins bottom="1.9" footer="0.5" header="0.5" left="1.8" right="1.8" top="1.9"/>
   <pageSetup fitToHeight="0" fitToWidth="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/export2.xlsx
+++ b/export2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="480"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13800" windowWidth="22155" xWindow="780" yWindow="1380"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tblAdditionalInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -329,106 +329,106 @@
     <t>Labor $/Hr</t>
   </si>
   <si>
-    <t>Labor Hours/Unit Area</t>
+    <t>Mat Labor.</t>
   </si>
   <si>
     <t>Bid Item:  || Base Bid</t>
   </si>
   <si>
+    <t xml:space="preserve"> || Electrical Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Base Bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Tele/Data Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Site Lighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Exterior Lighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Feeders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Metering/Power Monitoring System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Generators and Transfer Switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Grounding System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Mechanical Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Heat Trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Electric Heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Power Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Miscellaneous Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Kitchen Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Lighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Lighting Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Wall Switches and Dimmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Fire Alarm System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Two Way Communication System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Cable Tray</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Fire Stopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Lightning Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Demolition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Intercom Rough-In</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Audio Video Rough-In</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || Tele/Data Rough-In</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || CATV Rough-In</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || DAS Rough-In</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> || DAS Life Safety System</t>
+  </si>
+  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Electrical Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Base Bid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Tele/Data Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Site Lighting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Exterior Lighting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Feeders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Metering/Power Monitoring System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Generators and Transfer Switches</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Grounding System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Mechanical Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Heat Trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Electric Heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Power Devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Miscellaneous Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Kitchen Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Lighting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Lighting Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Wall Switches and Dimmers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Fire Alarm System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Two Way Communication System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Cable Tray</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Fire Stopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Lightning Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Demolition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Intercom Rough-In</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Audio Video Rough-In</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || Tele/Data Rough-In</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || CATV Rough-In</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || DAS Rough-In</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> || DAS Life Safety System</t>
   </si>
   <si>
     <t xml:space="preserve"> || Access Control Rough-In</t>
@@ -1942,13 +1942,13 @@
       <c r="AE3" s="7" t="n">
         <v>78.77419321349434</v>
       </c>
-      <c r="AF3" s="7" t="s">
-        <v>105</v>
+      <c r="AF3" s="7" t="n">
+        <v>120.6173592065882</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>17718.49</v>
@@ -1993,18 +1993,18 @@
         <v>1312.4</v>
       </c>
       <c r="AD4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE4" s="7" t="n">
         <v>86.04350827191556</v>
       </c>
-      <c r="AF4" s="7" t="s">
-        <v>105</v>
+      <c r="AF4" s="7" t="n">
+        <v>126.6703206357906</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>23082.52</v>
@@ -2049,18 +2049,18 @@
         <v>1709.82</v>
       </c>
       <c r="AD5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE5" s="7" t="n">
         <v>92.61043485445182</v>
       </c>
-      <c r="AF5" s="7" t="s">
-        <v>105</v>
+      <c r="AF5" s="7" t="n">
+        <v>128.2298188847334</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>10858.15</v>
@@ -2105,18 +2105,18 @@
         <v>804.3099999999999</v>
       </c>
       <c r="AD6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE6" s="7" t="n">
         <v>79.21492738362883</v>
       </c>
-      <c r="AF6" s="7" t="s">
-        <v>105</v>
+      <c r="AF6" s="7" t="n">
+        <v>121.4028675850436</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>33420.73</v>
@@ -2161,18 +2161,18 @@
         <v>2475.61</v>
       </c>
       <c r="AD7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE7" s="7" t="n">
         <v>76.39629826788421</v>
       </c>
-      <c r="AF7" s="7" t="s">
-        <v>105</v>
+      <c r="AF7" s="7" t="n">
+        <v>112.6170700636943</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>343502.09</v>
@@ -2220,18 +2220,18 @@
         <v>25444.6</v>
       </c>
       <c r="AD8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE8" s="7" t="n">
         <v>76.46518480642565</v>
       </c>
-      <c r="AF8" s="7" t="s">
-        <v>105</v>
+      <c r="AF8" s="7" t="n">
+        <v>113.0128886427256</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>271072.05</v>
@@ -2276,18 +2276,18 @@
         <v>20079.41</v>
       </c>
       <c r="AD9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE9" s="7" t="n">
         <v>80.78043677142801</v>
       </c>
-      <c r="AF9" s="7" t="s">
-        <v>105</v>
+      <c r="AF9" s="7" t="n">
+        <v>123.4497359185572</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2554.74</v>
@@ -2332,18 +2332,18 @@
         <v>189.24</v>
       </c>
       <c r="AD10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE10" s="7" t="n">
         <v>76.5871757925072</v>
       </c>
-      <c r="AF10" s="7" t="s">
-        <v>105</v>
+      <c r="AF10" s="7" t="n">
+        <v>113.7055837563452</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>134628.47</v>
@@ -2391,18 +2391,18 @@
         <v>9972.48</v>
       </c>
       <c r="AD11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE11" s="7" t="n">
         <v>78.94320730795488</v>
       </c>
-      <c r="AF11" s="7" t="s">
-        <v>105</v>
+      <c r="AF11" s="7" t="n">
+        <v>120.931906876598</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>13088.93</v>
@@ -2447,18 +2447,18 @@
         <v>969.55</v>
       </c>
       <c r="AD12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE12" s="7" t="n">
         <v>86.97506982517844</v>
       </c>
-      <c r="AF12" s="7" t="s">
-        <v>105</v>
+      <c r="AF12" s="7" t="n">
+        <v>126.9792593911341</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>507457.26</v>
@@ -2503,18 +2503,18 @@
         <v>37589.43</v>
       </c>
       <c r="AD13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE13" s="7" t="n">
         <v>81.76436600647931</v>
       </c>
-      <c r="AF13" s="7" t="s">
-        <v>105</v>
+      <c r="AF13" s="7" t="n">
+        <v>124.3522949446048</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2926.41</v>
@@ -2559,18 +2559,18 @@
         <v>216.77</v>
       </c>
       <c r="AD14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE14" s="7" t="n">
         <v>85.44885361552028</v>
       </c>
-      <c r="AF14" s="7" t="s">
-        <v>105</v>
+      <c r="AF14" s="7" t="n">
+        <v>126.4305525922765</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>73400.10000000001</v>
@@ -2615,18 +2615,18 @@
         <v>5437.04</v>
       </c>
       <c r="AD15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE15" s="7" t="n">
         <v>86.45063055901883</v>
       </c>
-      <c r="AF15" s="7" t="s">
-        <v>105</v>
+      <c r="AF15" s="7" t="n">
+        <v>126.8073810084347</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>795517.4300000001</v>
@@ -2674,18 +2674,18 @@
         <v>58927.22</v>
       </c>
       <c r="AD16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE16" s="7" t="n">
         <v>80.05861580031198</v>
       </c>
-      <c r="AF16" s="7" t="s">
-        <v>105</v>
+      <c r="AF16" s="7" t="n">
+        <v>122.622275790702</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>25277.84</v>
@@ -2730,18 +2730,18 @@
         <v>1872.43</v>
       </c>
       <c r="AD17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE17" s="7" t="n">
         <v>79.28473065025601</v>
       </c>
-      <c r="AF17" s="7" t="s">
-        <v>105</v>
+      <c r="AF17" s="7" t="n">
+        <v>121.516300227445</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>118152.69</v>
@@ -2786,18 +2786,18 @@
         <v>8752.049999999999</v>
       </c>
       <c r="AD18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE18" s="7" t="n">
         <v>81.3509519749929</v>
       </c>
-      <c r="AF18" s="7" t="s">
-        <v>105</v>
+      <c r="AF18" s="7" t="n">
+        <v>123.9996689358356</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1486389.63</v>
@@ -2845,18 +2845,18 @@
         <v>110102.94</v>
       </c>
       <c r="AD19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE19" s="7" t="n">
         <v>76.38777747603218</v>
       </c>
-      <c r="AF19" s="7" t="s">
-        <v>105</v>
+      <c r="AF19" s="7" t="n">
+        <v>112.565602528723</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>154142.46</v>
@@ -2904,18 +2904,18 @@
         <v>11417.96</v>
       </c>
       <c r="AD20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE20" s="7" t="n">
         <v>79.12129991855483</v>
       </c>
-      <c r="AF20" s="7" t="s">
-        <v>105</v>
+      <c r="AF20" s="7" t="n">
+        <v>121.2453436955648</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>651704.13</v>
@@ -2963,18 +2963,18 @@
         <v>48274.38</v>
       </c>
       <c r="AD21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" s="7" t="n">
         <v>80.25944267144723</v>
       </c>
-      <c r="AF21" s="7" t="s">
-        <v>105</v>
+      <c r="AF21" s="7" t="n">
+        <v>122.8695272428598</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>674025.4399999999</v>
@@ -3022,18 +3022,18 @@
         <v>49927.81</v>
       </c>
       <c r="AD22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE22" s="7" t="n">
         <v>77.00658576079354</v>
       </c>
-      <c r="AF22" s="7" t="s">
-        <v>105</v>
+      <c r="AF22" s="7" t="n">
+        <v>115.6299785254903</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>34851.06</v>
@@ -3081,18 +3081,18 @@
         <v>2581.56</v>
       </c>
       <c r="AD23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE23" s="7" t="n">
         <v>76.56259677551871</v>
       </c>
-      <c r="AF23" s="7" t="s">
-        <v>105</v>
+      <c r="AF23" s="7" t="n">
+        <v>113.5462900694911</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1471.74</v>
@@ -3137,18 +3137,18 @@
         <v>109.02</v>
       </c>
       <c r="AD24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE24" s="7" t="n">
         <v>77.99481072450268</v>
       </c>
-      <c r="AF24" s="7" t="s">
-        <v>105</v>
+      <c r="AF24" s="7" t="n">
+        <v>118.8696369636964</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>58762.25</v>
@@ -3196,18 +3196,18 @@
         <v>4352.76</v>
       </c>
       <c r="AD25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE25" s="7" t="n">
         <v>78.654322019064</v>
       </c>
-      <c r="AF25" s="7" t="s">
-        <v>105</v>
+      <c r="AF25" s="7" t="n">
+        <v>120.3807046070461</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>27436.34</v>
@@ -3252,18 +3252,18 @@
         <v>2032.32</v>
       </c>
       <c r="AD26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE26" s="7" t="n">
         <v>79.77238437825116</v>
       </c>
-      <c r="AF26" s="7" t="s">
-        <v>105</v>
+      <c r="AF26" s="7" t="n">
+        <v>122.244812990077</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>6140.51</v>
@@ -3308,18 +3308,18 @@
         <v>454.85</v>
       </c>
       <c r="AD27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE27" s="7" t="n">
         <v>82.58966878325039</v>
       </c>
-      <c r="AF27" s="7" t="s">
-        <v>105</v>
+      <c r="AF27" s="7" t="n">
+        <v>124.9686746987952</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>7959.05</v>
@@ -3364,18 +3364,18 @@
         <v>589.5599999999999</v>
       </c>
       <c r="AD28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE28" s="7" t="n">
         <v>76.93010474893137</v>
       </c>
-      <c r="AF28" s="7" t="s">
-        <v>105</v>
+      <c r="AF28" s="7" t="n">
+        <v>115.3104483211405</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>35716.52</v>
@@ -3420,18 +3420,18 @@
         <v>2645.67</v>
       </c>
       <c r="AD29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE29" s="7" t="n">
         <v>77.04412573084802</v>
       </c>
-      <c r="AF29" s="7" t="s">
-        <v>105</v>
+      <c r="AF29" s="7" t="n">
+        <v>115.7844535931195</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="B30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>546218.72</v>
@@ -3479,18 +3479,18 @@
         <v>40460.65</v>
       </c>
       <c r="AD30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE30" s="7" t="n">
         <v>78.50008325876146</v>
       </c>
-      <c r="AF30" s="7" t="s">
-        <v>105</v>
+      <c r="AF30" s="7" t="n">
+        <v>120.062417422206</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>16306.67</v>
@@ -3535,18 +3535,18 @@
         <v>1207.9</v>
       </c>
       <c r="AD31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE31" s="7" t="n">
         <v>77.11609924118521</v>
       </c>
-      <c r="AF31" s="7" t="s">
-        <v>105</v>
+      <c r="AF31" s="7" t="n">
+        <v>116.0724331926864</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="B32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1682.46</v>
@@ -3591,18 +3591,18 @@
         <v>124.63</v>
       </c>
       <c r="AD32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE32" s="7" t="n">
         <v>81.37150466045273</v>
       </c>
-      <c r="AF32" s="7" t="s">
-        <v>105</v>
+      <c r="AF32" s="7" t="n">
+        <v>124.0115998066699</v>
       </c>
     </row>
     <row r="33" spans="1:32">
       <c r="B33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>28751.22</v>
@@ -3614,13 +3614,13 @@
         <v>2129.72</v>
       </c>
       <c r="AD33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="AF33" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -3670,13 +3670,13 @@
         <v>1992.47</v>
       </c>
       <c r="AD34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE34" s="7" t="n">
         <v>76.39662710593886</v>
       </c>
-      <c r="AF34" s="7" t="s">
-        <v>105</v>
+      <c r="AF34" s="7" t="n">
+        <v>112.6209166877691</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -3726,13 +3726,13 @@
         <v>1207.3</v>
       </c>
       <c r="AD35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE35" s="7" t="n">
         <v>76.8125837825504</v>
       </c>
-      <c r="AF35" s="7" t="s">
-        <v>105</v>
+      <c r="AF35" s="7" t="n">
+        <v>114.780726519857</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -3749,13 +3749,13 @@
         <v>8856.02</v>
       </c>
       <c r="AD36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE36" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="AF36" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -3835,12 +3835,12 @@
         <v>73.228285933897</v>
       </c>
       <c r="AF37" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:32">
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>120.99</v>
@@ -3870,7 +3870,7 @@
         <v>73.228285933897</v>
       </c>
       <c r="AF38" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -3950,12 +3950,12 @@
         <v>73.22691197691199</v>
       </c>
       <c r="AF39" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:32">
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1011.32</v>
@@ -3985,7 +3985,7 @@
         <v>73.22691197691199</v>
       </c>
       <c r="AF40" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -4065,12 +4065,12 @@
         <v>73.22745901639344</v>
       </c>
       <c r="AF41" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:32">
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>693.46</v>
@@ -4100,7 +4100,7 @@
         <v>73.22745901639344</v>
       </c>
       <c r="AF42" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -4180,12 +4180,12 @@
         <v>73.22718423043165</v>
       </c>
       <c r="AF43" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:32">
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>-35678.73</v>
@@ -4215,7 +4215,7 @@
         <v>73.22718423043165</v>
       </c>
       <c r="AF44" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -4295,12 +4295,12 @@
         <v>73.22718895266335</v>
       </c>
       <c r="AF45" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:32">
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>42725.71</v>
@@ -4330,12 +4330,12 @@
         <v>73.22718665264874</v>
       </c>
       <c r="AF46" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:32">
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>92629.33</v>
@@ -4365,7 +4365,7 @@
         <v>73.22719000369561</v>
       </c>
       <c r="AF47" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -4445,12 +4445,12 @@
         <v>73.2271939262106</v>
       </c>
       <c r="AF48" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:32">
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>-50548.75</v>
@@ -4480,7 +4480,7 @@
         <v>73.2271939262106</v>
       </c>
       <c r="AF49" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:32">
@@ -4535,11 +4535,11 @@
       <c r="W50" s="4" t="n">
         <v>467994.2</v>
       </c>
-      <c r="AE50" s="7" t="n">
+      <c r="AE50" t="n">
         <v>78.64099765663585</v>
       </c>
-      <c r="AF50" s="7" t="s">
-        <v>105</v>
+      <c r="AF50" t="n">
+        <v>112.1085158555998</v>
       </c>
     </row>
   </sheetData>

--- a/export2.xlsx
+++ b/export2.xlsx
@@ -1,24 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stick\Documents\Python\Programs\Excel\ExcelMetrics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6F084-01C5-4482-AA95-AFDC17263A22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13800" windowWidth="22155" xWindow="780" yWindow="1380"/>
+    <workbookView xWindow="3240" yWindow="1020" windowWidth="22155" windowHeight="13800" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tblAdditionalInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tblTabsOrder" sheetId="2" state="veryHidden" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bid Breakdown_MetaData" sheetId="3" state="veryHidden" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bid Breakdown" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="tblAdditionalInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
+    <sheet name="tblTabsOrder" sheetId="2" state="veryHidden" r:id="rId2"/>
+    <sheet name="Bid Breakdown_MetaData" sheetId="3" state="veryHidden" r:id="rId3"/>
+    <sheet name="Bid Breakdown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
   <si>
     <t>tblAdditionalInfo</t>
   </si>
@@ -428,9 +442,6 @@
     <t xml:space="preserve"> || DAS Life Safety System</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t xml:space="preserve"> || Access Control Rough-In</t>
   </si>
   <si>
@@ -477,34 +488,37 @@
   </si>
   <si>
     <t>Revised Totals</t>
+  </si>
+  <si>
+    <t>Tenant Improvement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt formatCode="###,###,###,##0.00" numFmtId="164"/>
-    <numFmt formatCode="###,###,###,##0.000" numFmtId="165"/>
-    <numFmt formatCode="###,###,###,##0.0000" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="###,###,###,##0.00"/>
+    <numFmt numFmtId="165" formatCode="###,###,###,##0.000"/>
+    <numFmt numFmtId="166" formatCode="###,###,###,##0.0000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
-        <bgColor rgb="0000FFFF"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -518,28 +532,37 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -829,20 +852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -907,27 +924,21 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
-  <pageMargins bottom="1.9" footer="0.5" header="0.5" left="1.8" right="1.8" top="1.9"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="1.8" right="1.8" top="1.9" bottom="1.9" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -959,7 +970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -978,7 +989,7 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-8000</v>
       </c>
       <c r="H2" t="b">
@@ -992,27 +1003,21 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
-  <pageMargins bottom="1.9" footer="0.5" header="0.5" left="1.8" right="1.8" top="1.9"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="1.8" right="1.8" top="1.9" bottom="1.9" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1051,11 +1056,11 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1071,11 +1076,11 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1094,11 +1099,11 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1117,11 +1122,11 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1140,11 +1145,11 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1163,11 +1168,11 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1186,11 +1191,11 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1209,11 +1214,11 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1232,11 +1237,11 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1255,11 +1260,11 @@
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1278,11 +1283,11 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1301,11 +1306,11 @@
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -1324,11 +1329,11 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1347,11 +1352,11 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1370,11 +1375,11 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1393,11 +1398,11 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1416,11 +1421,11 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1439,11 +1444,11 @@
       <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -1462,11 +1467,11 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1485,11 +1490,11 @@
       <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1508,11 +1513,11 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1531,11 +1536,11 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -1554,11 +1559,11 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -1577,11 +1582,11 @@
       <c r="F25" t="b">
         <v>0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1600,11 +1605,11 @@
       <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -1623,11 +1628,11 @@
       <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1646,11 +1651,11 @@
       <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1669,11 +1674,11 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -1692,11 +1697,11 @@
       <c r="F30" t="b">
         <v>1</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -1712,63 +1717,67 @@
       <c r="F31" t="b">
         <v>1</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
-  <pageMargins bottom="1.9" footer="0.5" header="0.5" left="1.8" right="1.8" top="1.9"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="1.8" right="1.8" top="1.9" bottom="1.9" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="X1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="101"/>
-    <col customWidth="1" max="2" min="2" style="1" width="47.85546875"/>
-    <col customWidth="1" max="4" min="3" style="2" width="13.28515625"/>
-    <col customWidth="1" max="5" min="5" style="3" width="19.85546875"/>
-    <col customWidth="1" max="6" min="6" style="2" width="41.140625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="18.5703125"/>
-    <col customWidth="1" max="8" min="8" style="2" width="19.85546875"/>
-    <col customWidth="1" max="9" min="9" style="3" width="18.5703125"/>
-    <col customWidth="1" max="10" min="10" style="4" width="17.28515625"/>
-    <col customWidth="1" max="11" min="11" style="3" width="19.85546875"/>
-    <col customWidth="1" max="12" min="12" style="4" width="17.28515625"/>
-    <col customWidth="1" max="13" min="13" style="4" width="16"/>
-    <col customWidth="1" max="14" min="14" style="3" width="18.5703125"/>
-    <col customWidth="1" max="15" min="15" style="4" width="16"/>
-    <col customWidth="1" max="16" min="16" style="3" width="12"/>
-    <col customWidth="1" max="17" min="17" style="2" width="17.28515625"/>
-    <col customWidth="1" max="18" min="18" style="4" width="16"/>
-    <col customWidth="1" max="20" min="19" style="4" width="12"/>
-    <col customWidth="1" max="21" min="21" style="4" width="30.5703125"/>
-    <col customWidth="1" max="22" min="22" style="4" width="12"/>
-    <col customWidth="1" max="23" min="23" style="4" width="25.28515625"/>
-    <col customWidth="1" max="24" min="24" style="4" width="16"/>
-    <col customWidth="1" max="25" min="25" style="2" width="17.28515625"/>
-    <col customWidth="1" max="26" min="26" style="5" width="5.28515625"/>
-    <col customWidth="1" max="27" min="27" style="6" width="19.85546875"/>
-    <col customWidth="1" max="28" min="28" style="6" width="21.28515625"/>
-    <col customWidth="1" max="29" min="29" style="6" width="16"/>
-    <col customWidth="1" max="30" min="30" width="87.7109375"/>
+    <col min="1" max="1" width="101" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16" style="4" customWidth="1"/>
+    <col min="19" max="20" width="12" style="4" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="12" style="4" customWidth="1"/>
+    <col min="23" max="23" width="25.28515625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="16" style="4" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="21.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="16" style="6" customWidth="1"/>
+    <col min="30" max="30" width="87.7109375" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32"/>
-    <row r="2" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1866,2707 +1875,2791 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>6266969.38</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>531681.4399999999</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>40397.896</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2958224.541349036</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>4408.001</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="C3" s="2">
+        <v>6266969.3799999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>531681.43999999994</v>
+      </c>
+      <c r="E3" s="3">
+        <v>40397.896000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2958224.5413490362</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4408.0010000000002</v>
+      </c>
+      <c r="J3" s="4">
         <v>349914.65</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>237213.1</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="3">
         <v>2200.002</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="4">
         <v>157499.49</v>
       </c>
-      <c r="P3" s="3" t="n">
-        <v>47005.899</v>
-      </c>
-      <c r="Q3" s="2" t="n">
+      <c r="P3" s="3">
+        <v>47005.898999999998</v>
+      </c>
+      <c r="Q3" s="2">
         <v>3702851.77</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="4">
         <v>620143.02</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="4">
         <v>67354.19</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="4">
         <v>211780.44</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="4">
         <v>668938.64</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>464219.8752</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="7" t="n">
-        <v>78.77419321349434</v>
-      </c>
-      <c r="AF3" s="7" t="n">
-        <v>120.6173592065882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>464219.87520000001</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7">
+        <f t="shared" ref="AE3:AE49" si="0">Q3/P3</f>
+        <v>78.774193213494343</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" ref="AF3:AF49" si="1">D3/I3</f>
+        <v>120.61735920658819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>17718.49</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="C4" s="2">
+        <v>17718.490000000002</v>
+      </c>
+      <c r="D4" s="2">
         <v>3697.76</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>90.97199999999999</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="3">
+        <v>90.971999999999994</v>
+      </c>
+      <c r="F4" s="2">
         <v>6661.62</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>29.192</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>2317.3</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="J4" s="4">
+        <v>2317.3000000000002</v>
+      </c>
+      <c r="M4" s="4">
         <v>1570.94</v>
       </c>
-      <c r="N4" s="3" t="n">
-        <v>14.569</v>
-      </c>
-      <c r="O4" s="4" t="n">
+      <c r="N4" s="3">
+        <v>14.569000000000001</v>
+      </c>
+      <c r="O4" s="4">
         <v>1043.04</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="3">
         <v>134.733</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="2">
         <v>11592.9</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="4">
         <v>446.05</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="4">
         <v>669.38</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="4">
         <v>1312.4</v>
       </c>
       <c r="AD4" t="s">
         <v>106</v>
       </c>
-      <c r="AE4" s="7" t="n">
-        <v>86.04350827191556</v>
-      </c>
-      <c r="AF4" s="7" t="n">
-        <v>126.6703206357906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AE4" s="7">
+        <f t="shared" si="0"/>
+        <v>86.043508271915556</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="1"/>
+        <v>126.67032063579063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>23082.52</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>6102.97</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>73.896</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="3">
+        <v>73.896000000000001</v>
+      </c>
+      <c r="F5" s="2">
         <v>5411.2</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>47.594</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="I5" s="3">
+        <v>47.594000000000001</v>
+      </c>
+      <c r="J5" s="4">
         <v>3778.11</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>2561.24</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>23.754</v>
-      </c>
-      <c r="O5" s="4" t="n">
+      <c r="M5" s="4">
+        <v>2561.2399999999998</v>
+      </c>
+      <c r="N5" s="3">
+        <v>23.754000000000001</v>
+      </c>
+      <c r="O5" s="4">
         <v>1700.56</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="3">
         <v>145.244</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="2">
         <v>13451.11</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="4">
         <v>727.24</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>1091.38</v>
-      </c>
-      <c r="W5" s="4" t="n">
+      <c r="T5" s="4">
+        <v>1091.3800000000001</v>
+      </c>
+      <c r="W5" s="4">
         <v>1709.82</v>
       </c>
       <c r="AD5" t="s">
         <v>106</v>
       </c>
-      <c r="AE5" s="7" t="n">
-        <v>92.61043485445182</v>
-      </c>
-      <c r="AF5" s="7" t="n">
-        <v>128.2298188847334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AE5" s="7">
+        <f t="shared" si="0"/>
+        <v>92.610434854451825</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="1"/>
+        <v>128.22981888473336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>10858.15</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>1295.49</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>89.42</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>6547.98</v>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>10.671</v>
-      </c>
-      <c r="J6" s="4" t="n">
+      <c r="I6" s="3">
+        <v>10.670999999999999</v>
+      </c>
+      <c r="J6" s="4">
         <v>847.09</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="4">
         <v>574.25</v>
       </c>
-      <c r="N6" s="3" t="n">
-        <v>5.326</v>
-      </c>
-      <c r="O6" s="4" t="n">
+      <c r="N6" s="3">
+        <v>5.3259999999999996</v>
+      </c>
+      <c r="O6" s="4">
         <v>381.28</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="P6" s="3">
         <v>105.417</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="2">
         <v>8350.6</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>163.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
+      <c r="S6" s="4">
+        <v>163.05000000000001</v>
+      </c>
+      <c r="T6" s="4">
         <v>244.7</v>
       </c>
-      <c r="W6" s="4" t="n">
-        <v>804.3099999999999</v>
+      <c r="W6" s="4">
+        <v>804.31</v>
       </c>
       <c r="AD6" t="s">
         <v>106</v>
       </c>
-      <c r="AE6" s="7" t="n">
-        <v>79.21492738362883</v>
-      </c>
-      <c r="AF6" s="7" t="n">
-        <v>121.4028675850436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AE6" s="7">
+        <f t="shared" si="0"/>
+        <v>79.214927383628833</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="1"/>
+        <v>121.40286758504358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>33420.73</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="C7" s="2">
+        <v>33420.730000000003</v>
+      </c>
+      <c r="D7" s="2">
         <v>2210.11</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>336.895</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="3">
+        <v>336.89499999999998</v>
+      </c>
+      <c r="F7" s="2">
         <v>24669.88</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>19.625</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="4">
         <v>1557.89</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>1056.12</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>9.795</v>
-      </c>
-      <c r="O7" s="4" t="n">
+      <c r="M7" s="4">
+        <v>1056.1199999999999</v>
+      </c>
+      <c r="N7" s="3">
+        <v>9.7949999999999999</v>
+      </c>
+      <c r="O7" s="4">
         <v>701.22</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="3">
         <v>366.315</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="2">
         <v>27985.11</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="4">
         <v>299.87</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="4">
         <v>450.03</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="4">
         <v>2475.61</v>
       </c>
       <c r="AD7" t="s">
         <v>106</v>
       </c>
-      <c r="AE7" s="7" t="n">
-        <v>76.39629826788421</v>
-      </c>
-      <c r="AF7" s="7" t="n">
-        <v>112.6170700636943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AE7" s="7">
+        <f t="shared" si="0"/>
+        <v>76.396298267884205</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="1"/>
+        <v>112.61707006369427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>343502.09</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>7549.6</v>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>1120.214</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="3">
+        <v>1120.2139999999999</v>
+      </c>
+      <c r="F8" s="2">
         <v>82030.13</v>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>66.803</v>
-      </c>
-      <c r="J8" s="4" t="n">
+      <c r="I8" s="3">
+        <v>66.802999999999997</v>
+      </c>
+      <c r="J8" s="4">
         <v>5302.93</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="4">
         <v>3594.95</v>
       </c>
-      <c r="N8" s="3" t="n">
-        <v>33.341</v>
-      </c>
-      <c r="O8" s="4" t="n">
+      <c r="N8" s="3">
+        <v>33.341000000000001</v>
+      </c>
+      <c r="O8" s="4">
         <v>2386.89</v>
       </c>
-      <c r="P8" s="3" t="n">
-        <v>1220.358</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>93314.89999999999</v>
-      </c>
-      <c r="S8" s="4" t="n">
+      <c r="P8" s="3">
+        <v>1220.3579999999999</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>93314.9</v>
+      </c>
+      <c r="S8" s="4">
         <v>1020.75</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="4">
         <v>1531.86</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="4">
         <v>214640.38</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="4">
         <v>25444.6</v>
       </c>
       <c r="AD8" t="s">
         <v>106</v>
       </c>
-      <c r="AE8" s="7" t="n">
-        <v>76.46518480642565</v>
-      </c>
-      <c r="AF8" s="7" t="n">
-        <v>113.0128886427256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AE8" s="7">
+        <f t="shared" si="0"/>
+        <v>76.465184806425654</v>
+      </c>
+      <c r="AF8" s="7">
+        <f t="shared" si="1"/>
+        <v>113.01288864272564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>271072.05</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>39010.24</v>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="D9" s="2">
+        <v>39010.239999999998</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000.989</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>146526.81</v>
       </c>
-      <c r="I9" s="3" t="n">
-        <v>316.001</v>
-      </c>
-      <c r="J9" s="4" t="n">
+      <c r="I9" s="3">
+        <v>316.00099999999998</v>
+      </c>
+      <c r="J9" s="4">
         <v>25084.69</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="4">
         <v>17005.34</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="3">
         <v>157.714</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="4">
         <v>11290.83</v>
       </c>
-      <c r="P9" s="3" t="n">
-        <v>2474.704</v>
-      </c>
-      <c r="Q9" s="2" t="n">
+      <c r="P9" s="3">
+        <v>2474.7040000000002</v>
+      </c>
+      <c r="Q9" s="2">
         <v>199907.67</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="4">
         <v>4828.49</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="4">
         <v>7246.24</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="4">
         <v>20079.41</v>
       </c>
       <c r="AD9" t="s">
         <v>106</v>
       </c>
-      <c r="AE9" s="7" t="n">
-        <v>80.78043677142801</v>
-      </c>
-      <c r="AF9" s="7" t="n">
-        <v>123.4497359185572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AE9" s="7">
+        <f t="shared" si="0"/>
+        <v>80.780436771428015</v>
+      </c>
+      <c r="AF9" s="7">
+        <f t="shared" si="1"/>
+        <v>123.44973591855722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>2554.74</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="C10" s="2">
+        <v>2554.7399999999998</v>
+      </c>
+      <c r="D10" s="2">
         <v>179.2</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>25.397</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="3">
+        <v>25.396999999999998</v>
+      </c>
+      <c r="F10" s="2">
         <v>1859.75</v>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>1.576</v>
-      </c>
-      <c r="J10" s="4" t="n">
+      <c r="I10" s="3">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="J10" s="4">
         <v>125.14</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="4">
         <v>84.84</v>
       </c>
-      <c r="N10" s="3" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="O10" s="4" t="n">
+      <c r="N10" s="3">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="O10" s="4">
         <v>56.33</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="3">
         <v>27.76</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="2">
         <v>2126.06</v>
       </c>
-      <c r="S10" s="4" t="n">
+      <c r="S10" s="4">
         <v>24.09</v>
       </c>
-      <c r="T10" s="4" t="n">
+      <c r="T10" s="4">
         <v>36.15</v>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="W10" s="4">
         <v>189.24</v>
       </c>
       <c r="AD10" t="s">
         <v>106</v>
       </c>
-      <c r="AE10" s="7" t="n">
-        <v>76.5871757925072</v>
-      </c>
-      <c r="AF10" s="7" t="n">
-        <v>113.7055837563452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AE10" s="7">
+        <f t="shared" si="0"/>
+        <v>76.587175792507196</v>
+      </c>
+      <c r="AF10" s="7">
+        <f t="shared" si="1"/>
+        <v>113.70558375634516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>134628.47</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>1797.29</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>131.526</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>9631.280000000001</v>
-      </c>
-      <c r="I11" s="3" t="n">
+      <c r="E11" s="3">
+        <v>131.52600000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9631.2800000000007</v>
+      </c>
+      <c r="I11" s="3">
         <v>14.862</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="4">
         <v>1179.77</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="4">
         <v>799.79</v>
       </c>
-      <c r="N11" s="3" t="n">
-        <v>7.417</v>
-      </c>
-      <c r="O11" s="4" t="n">
+      <c r="N11" s="3">
+        <v>7.4169999999999998</v>
+      </c>
+      <c r="O11" s="4">
         <v>531.02</v>
       </c>
-      <c r="P11" s="3" t="n">
-        <v>153.805</v>
-      </c>
-      <c r="Q11" s="2" t="n">
+      <c r="P11" s="3">
+        <v>153.80500000000001</v>
+      </c>
+      <c r="Q11" s="2">
         <v>12141.86</v>
       </c>
-      <c r="S11" s="4" t="n">
+      <c r="S11" s="4">
         <v>227.09</v>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="T11" s="4">
         <v>340.8</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="4">
         <v>110148.95</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="4">
         <v>9972.48</v>
       </c>
       <c r="AD11" t="s">
         <v>106</v>
       </c>
-      <c r="AE11" s="7" t="n">
-        <v>78.94320730795488</v>
-      </c>
-      <c r="AF11" s="7" t="n">
-        <v>120.931906876598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AE11" s="7">
+        <f t="shared" si="0"/>
+        <v>78.943207307954879</v>
+      </c>
+      <c r="AF11" s="7">
+        <f t="shared" si="1"/>
+        <v>120.93190687659803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>13088.93</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>2852.97</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>62.988</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>4612.43</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3">
         <v>22.468</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="4">
         <v>1783.56</v>
       </c>
-      <c r="M12" s="4" t="n">
-        <v>1209.1</v>
-      </c>
-      <c r="N12" s="3" t="n">
+      <c r="M12" s="4">
+        <v>1209.0999999999999</v>
+      </c>
+      <c r="N12" s="3">
         <v>11.214</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="4">
         <v>802.79</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="3">
         <v>96.67</v>
       </c>
-      <c r="Q12" s="2" t="n">
-        <v>8407.879999999999</v>
-      </c>
-      <c r="S12" s="4" t="n">
+      <c r="Q12" s="2">
+        <v>8407.8799999999992</v>
+      </c>
+      <c r="S12" s="4">
         <v>343.31</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="4">
         <v>515.22</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="4">
         <v>969.55</v>
       </c>
       <c r="AD12" t="s">
         <v>106</v>
       </c>
-      <c r="AE12" s="7" t="n">
-        <v>86.97506982517844</v>
-      </c>
-      <c r="AF12" s="7" t="n">
-        <v>126.9792593911341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AE12" s="7">
+        <f t="shared" si="0"/>
+        <v>86.975069825178437</v>
+      </c>
+      <c r="AF12" s="7">
+        <f t="shared" si="1"/>
+        <v>126.97925939113405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>507457.26</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>80140.08</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>3499.193</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="3">
+        <v>3499.1930000000002</v>
+      </c>
+      <c r="F13" s="2">
         <v>256236.08</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>644.46</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="4">
         <v>51158.31</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <v>34681.09</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>321.645</v>
-      </c>
-      <c r="O13" s="4" t="n">
+      <c r="M13" s="4">
+        <v>34681.089999999997</v>
+      </c>
+      <c r="N13" s="3">
+        <v>321.64499999999998</v>
+      </c>
+      <c r="O13" s="4">
         <v>23026.78</v>
       </c>
-      <c r="P13" s="3" t="n">
-        <v>4465.298</v>
-      </c>
-      <c r="Q13" s="2" t="n">
+      <c r="P13" s="3">
+        <v>4465.2979999999998</v>
+      </c>
+      <c r="Q13" s="2">
         <v>365102.26</v>
       </c>
-      <c r="S13" s="4" t="n">
+      <c r="S13" s="4">
         <v>9847.34</v>
       </c>
-      <c r="T13" s="4" t="n">
+      <c r="T13" s="4">
         <v>14778.15</v>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="W13" s="4">
         <v>37589.43</v>
       </c>
       <c r="AD13" t="s">
         <v>106</v>
       </c>
-      <c r="AE13" s="7" t="n">
-        <v>81.76436600647931</v>
-      </c>
-      <c r="AF13" s="7" t="n">
-        <v>124.3522949446048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AE13" s="7">
+        <f t="shared" si="0"/>
+        <v>81.764366006479307</v>
+      </c>
+      <c r="AF13" s="7">
+        <f t="shared" si="1"/>
+        <v>124.35229494460478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>2926.41</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>592.58</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="D14" s="2">
+        <v>592.58000000000004</v>
+      </c>
+      <c r="E14" s="3">
         <v>15.654</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>1146.3</v>
       </c>
-      <c r="I14" s="3" t="n">
-        <v>4.687</v>
-      </c>
-      <c r="J14" s="4" t="n">
+      <c r="I14" s="3">
+        <v>4.6870000000000003</v>
+      </c>
+      <c r="J14" s="4">
         <v>372.03</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="4">
         <v>252.2</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="3">
         <v>2.339</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="4">
         <v>167.45</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="3">
         <v>22.68</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="2">
         <v>1937.98</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="4">
         <v>71.61</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="4">
         <v>107.47</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="4">
         <v>216.77</v>
       </c>
       <c r="AD14" t="s">
         <v>106</v>
       </c>
-      <c r="AE14" s="7" t="n">
-        <v>85.44885361552028</v>
-      </c>
-      <c r="AF14" s="7" t="n">
-        <v>126.4305525922765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AE14" s="7">
+        <f t="shared" si="0"/>
+        <v>85.448853615520278</v>
+      </c>
+      <c r="AF14" s="7">
+        <f t="shared" si="1"/>
+        <v>126.43055259227651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>73400.10000000001</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="C15" s="2">
+        <v>73400.100000000006</v>
+      </c>
+      <c r="D15" s="2">
         <v>15620.26</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>366.36</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>26827.51</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="3">
         <v>123.181</v>
       </c>
-      <c r="J15" s="4" t="n">
-        <v>9778.280000000001</v>
-      </c>
-      <c r="M15" s="4" t="n">
+      <c r="J15" s="4">
+        <v>9778.2800000000007</v>
+      </c>
+      <c r="M15" s="4">
         <v>6628.86</v>
       </c>
-      <c r="N15" s="3" t="n">
-        <v>61.478</v>
-      </c>
-      <c r="O15" s="4" t="n">
+      <c r="N15" s="3">
+        <v>61.478000000000002</v>
+      </c>
+      <c r="O15" s="4">
         <v>4401.29</v>
       </c>
-      <c r="P15" s="3" t="n">
-        <v>551.019</v>
-      </c>
-      <c r="Q15" s="2" t="n">
+      <c r="P15" s="3">
+        <v>551.01900000000001</v>
+      </c>
+      <c r="Q15" s="2">
         <v>47635.94</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="4">
         <v>1882.2</v>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="T15" s="4">
         <v>2824.66</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="4">
         <v>5437.04</v>
       </c>
       <c r="AD15" t="s">
         <v>106</v>
       </c>
-      <c r="AE15" s="7" t="n">
-        <v>86.45063055901883</v>
-      </c>
-      <c r="AF15" s="7" t="n">
-        <v>126.8073810084347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AE15" s="7">
+        <f t="shared" si="0"/>
+        <v>86.450630559018833</v>
+      </c>
+      <c r="AF15" s="7">
+        <f t="shared" si="1"/>
+        <v>126.80738100843475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>795517.4300000001</v>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="C16" s="2">
+        <v>795517.43</v>
+      </c>
+      <c r="D16" s="2">
         <v>102143.62</v>
       </c>
-      <c r="E16" s="3" t="n">
-        <v>5963.996</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="E16" s="3">
+        <v>5963.9960000000001</v>
+      </c>
+      <c r="F16" s="2">
         <v>436726.69</v>
       </c>
-      <c r="I16" s="3" t="n">
-        <v>832.994</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>66124.48</v>
-      </c>
-      <c r="M16" s="4" t="n">
+      <c r="I16" s="3">
+        <v>832.99400000000003</v>
+      </c>
+      <c r="J16" s="4">
+        <v>66124.479999999996</v>
+      </c>
+      <c r="M16" s="4">
         <v>44826.91</v>
       </c>
-      <c r="N16" s="3" t="n">
-        <v>415.741</v>
-      </c>
-      <c r="O16" s="4" t="n">
+      <c r="N16" s="3">
+        <v>415.74099999999999</v>
+      </c>
+      <c r="O16" s="4">
         <v>29763.18</v>
       </c>
-      <c r="P16" s="3" t="n">
-        <v>7212.731</v>
-      </c>
-      <c r="Q16" s="2" t="n">
+      <c r="P16" s="3">
+        <v>7212.7309999999998</v>
+      </c>
+      <c r="Q16" s="2">
         <v>577441.26</v>
       </c>
-      <c r="S16" s="4" t="n">
+      <c r="S16" s="4">
         <v>12728.14</v>
       </c>
-      <c r="T16" s="4" t="n">
-        <v>19101.44</v>
-      </c>
-      <c r="U16" s="4" t="n">
+      <c r="T16" s="4">
+        <v>19101.439999999999</v>
+      </c>
+      <c r="U16" s="4">
         <v>25175.75</v>
       </c>
-      <c r="W16" s="4" t="n">
+      <c r="W16" s="4">
         <v>58927.22</v>
       </c>
       <c r="AD16" t="s">
         <v>106</v>
       </c>
-      <c r="AE16" s="7" t="n">
-        <v>80.05861580031198</v>
-      </c>
-      <c r="AF16" s="7" t="n">
-        <v>122.622275790702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AE16" s="7">
+        <f t="shared" si="0"/>
+        <v>80.058615800311983</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" si="1"/>
+        <v>122.62227579070196</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>25277.84</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>3045.32</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>207.15</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>15169.01</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>25.061</v>
       </c>
-      <c r="J17" s="4" t="n">
+      <c r="J17" s="4">
         <v>1989.39</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="4">
         <v>1348.64</v>
       </c>
-      <c r="N17" s="3" t="n">
-        <v>12.508</v>
-      </c>
-      <c r="O17" s="4" t="n">
-        <v>895.4400000000001</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>244.719</v>
-      </c>
-      <c r="Q17" s="2" t="n">
+      <c r="N17" s="3">
+        <v>12.507999999999999</v>
+      </c>
+      <c r="O17" s="4">
+        <v>895.44</v>
+      </c>
+      <c r="P17" s="3">
+        <v>244.71899999999999</v>
+      </c>
+      <c r="Q17" s="2">
         <v>19402.48</v>
       </c>
-      <c r="S17" s="4" t="n">
+      <c r="S17" s="4">
         <v>382.93</v>
       </c>
-      <c r="T17" s="4" t="n">
-        <v>574.6799999999999</v>
-      </c>
-      <c r="W17" s="4" t="n">
+      <c r="T17" s="4">
+        <v>574.67999999999995</v>
+      </c>
+      <c r="W17" s="4">
         <v>1872.43</v>
       </c>
       <c r="AD17" t="s">
         <v>106</v>
       </c>
-      <c r="AE17" s="7" t="n">
-        <v>79.28473065025601</v>
-      </c>
-      <c r="AF17" s="7" t="n">
-        <v>121.516300227445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AE17" s="7">
+        <f t="shared" si="0"/>
+        <v>79.284730650256009</v>
+      </c>
+      <c r="AF17" s="7">
+        <f t="shared" si="1"/>
+        <v>121.51630022744504</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>118152.69</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>17978.34</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>838.351</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>61390.09</v>
       </c>
-      <c r="I18" s="3" t="n">
-        <v>144.987</v>
-      </c>
-      <c r="J18" s="4" t="n">
+      <c r="I18" s="3">
+        <v>144.98699999999999</v>
+      </c>
+      <c r="J18" s="4">
         <v>11509.31</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="4">
         <v>7802.36</v>
       </c>
-      <c r="N18" s="3" t="n">
-        <v>72.36199999999999</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>5180.44</v>
-      </c>
-      <c r="P18" s="3" t="n">
+      <c r="N18" s="3">
+        <v>72.361999999999995</v>
+      </c>
+      <c r="O18" s="4">
+        <v>5180.4399999999996</v>
+      </c>
+      <c r="P18" s="3">
         <v>1055.7</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="2">
         <v>85882.2</v>
       </c>
-      <c r="S18" s="4" t="n">
+      <c r="S18" s="4">
         <v>2215.4</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="4">
         <v>3324.7</v>
       </c>
-      <c r="W18" s="4" t="n">
-        <v>8752.049999999999</v>
+      <c r="W18" s="4">
+        <v>8752.0499999999993</v>
       </c>
       <c r="AD18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" s="7" t="n">
-        <v>81.3509519749929</v>
-      </c>
-      <c r="AF18" s="7" t="n">
-        <v>123.9996689358356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AE18" s="7">
+        <f t="shared" si="0"/>
+        <v>81.350951974992896</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="1"/>
+        <v>123.99966893583563</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>1486389.63</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>79663.69</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>12184.232</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>892217.11</v>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>707.7089999999999</v>
-      </c>
-      <c r="J19" s="4" t="n">
+      <c r="I19" s="3">
+        <v>707.70899999999995</v>
+      </c>
+      <c r="J19" s="4">
         <v>56179.17</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="4">
         <v>38084.81</v>
       </c>
-      <c r="N19" s="3" t="n">
-        <v>353.212</v>
-      </c>
-      <c r="O19" s="4" t="n">
+      <c r="N19" s="3">
+        <v>353.21199999999999</v>
+      </c>
+      <c r="O19" s="4">
         <v>25286.71</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="P19" s="3">
         <v>13245.153</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="Q19" s="2">
         <v>1011767.8</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="S19" s="4">
         <v>10813.79</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="4">
         <v>16228.53</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="4">
         <v>257812.88</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="4">
         <v>110102.94</v>
       </c>
       <c r="AD19" t="s">
         <v>106</v>
       </c>
-      <c r="AE19" s="7" t="n">
-        <v>76.38777747603218</v>
-      </c>
-      <c r="AF19" s="7" t="n">
-        <v>112.565602528723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AE19" s="7">
+        <f t="shared" si="0"/>
+        <v>76.387777476032184</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" si="1"/>
+        <v>112.56560252872298</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>154142.46</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>13572.81</v>
       </c>
-      <c r="E20" s="3" t="n">
-        <v>955.639</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>69978.75999999999</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>111.945</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>8886.389999999999</v>
-      </c>
-      <c r="M20" s="4" t="n">
+      <c r="E20" s="3">
+        <v>955.63900000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>69978.759999999995</v>
+      </c>
+      <c r="I20" s="3">
+        <v>111.94499999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <v>8886.39</v>
+      </c>
+      <c r="M20" s="4">
         <v>6024.23</v>
       </c>
-      <c r="N20" s="3" t="n">
-        <v>55.871</v>
-      </c>
-      <c r="O20" s="4" t="n">
+      <c r="N20" s="3">
+        <v>55.871000000000002</v>
+      </c>
+      <c r="O20" s="4">
         <v>3999.84</v>
       </c>
-      <c r="P20" s="3" t="n">
-        <v>1123.455</v>
-      </c>
-      <c r="Q20" s="2" t="n">
+      <c r="P20" s="3">
+        <v>1123.4549999999999</v>
+      </c>
+      <c r="Q20" s="2">
         <v>88889.22</v>
       </c>
-      <c r="S20" s="4" t="n">
+      <c r="S20" s="4">
         <v>1710.52</v>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="T20" s="4">
         <v>2567.02</v>
       </c>
-      <c r="U20" s="4" t="n">
+      <c r="U20" s="4">
         <v>35984.93</v>
       </c>
-      <c r="W20" s="4" t="n">
+      <c r="W20" s="4">
         <v>11417.96</v>
       </c>
       <c r="AD20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" s="7" t="n">
-        <v>79.12129991855483</v>
-      </c>
-      <c r="AF20" s="7" t="n">
-        <v>121.2453436955648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AE20" s="7">
+        <f t="shared" si="0"/>
+        <v>79.121299918554826</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" si="1"/>
+        <v>121.24534369556478</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>651704.13</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>84969.07000000001</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>4780.211</v>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="D21" s="2">
+        <v>84969.07</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4780.2110000000002</v>
+      </c>
+      <c r="F21" s="2">
         <v>350041.44</v>
       </c>
-      <c r="I21" s="3" t="n">
-        <v>691.539</v>
-      </c>
-      <c r="J21" s="4" t="n">
+      <c r="I21" s="3">
+        <v>691.53899999999999</v>
+      </c>
+      <c r="J21" s="4">
         <v>54895.53</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="M21" s="4">
         <v>37214.61</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N21" s="3">
         <v>345.142</v>
       </c>
-      <c r="O21" s="4" t="n">
+      <c r="O21" s="4">
         <v>24708.93</v>
       </c>
-      <c r="P21" s="3" t="n">
-        <v>5816.892</v>
-      </c>
-      <c r="Q21" s="2" t="n">
+      <c r="P21" s="3">
+        <v>5816.8919999999998</v>
+      </c>
+      <c r="Q21" s="2">
         <v>466860.51</v>
       </c>
-      <c r="S21" s="4" t="n">
+      <c r="S21" s="4">
         <v>10566.7</v>
       </c>
-      <c r="T21" s="4" t="n">
+      <c r="T21" s="4">
         <v>15857.72</v>
       </c>
-      <c r="U21" s="4" t="n">
+      <c r="U21" s="4">
         <v>25175.75</v>
       </c>
-      <c r="W21" s="4" t="n">
+      <c r="W21" s="4">
         <v>48274.38</v>
       </c>
       <c r="AD21" t="s">
         <v>106</v>
       </c>
-      <c r="AE21" s="7" t="n">
-        <v>80.25944267144723</v>
-      </c>
-      <c r="AF21" s="7" t="n">
-        <v>122.8695272428598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AE21" s="7">
+        <f t="shared" si="0"/>
+        <v>80.259442671447232</v>
+      </c>
+      <c r="AF21" s="7">
+        <f t="shared" si="1"/>
+        <v>122.86952724285977</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>674025.4399999999</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>42053.12</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>5146.928</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="C22" s="2">
+        <v>674025.44</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42053.120000000003</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5146.9279999999999</v>
+      </c>
+      <c r="F22" s="2">
         <v>376895.09</v>
       </c>
-      <c r="I22" s="3" t="n">
-        <v>363.687</v>
-      </c>
-      <c r="J22" s="4" t="n">
+      <c r="I22" s="3">
+        <v>363.68700000000001</v>
+      </c>
+      <c r="J22" s="4">
         <v>28870.11</v>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="4">
         <v>19571.54</v>
       </c>
-      <c r="N22" s="3" t="n">
-        <v>181.514</v>
-      </c>
-      <c r="O22" s="4" t="n">
+      <c r="N22" s="3">
+        <v>181.51400000000001</v>
+      </c>
+      <c r="O22" s="4">
         <v>12994.68</v>
       </c>
-      <c r="P22" s="3" t="n">
-        <v>5692.129</v>
-      </c>
-      <c r="Q22" s="2" t="n">
+      <c r="P22" s="3">
+        <v>5692.1289999999999</v>
+      </c>
+      <c r="Q22" s="2">
         <v>438331.42</v>
       </c>
-      <c r="R22" s="4" t="n">
+      <c r="R22" s="4">
         <v>129816.23</v>
       </c>
-      <c r="S22" s="4" t="n">
+      <c r="S22" s="4">
         <v>5557.13</v>
       </c>
-      <c r="T22" s="4" t="n">
+      <c r="T22" s="4">
         <v>8339.73</v>
       </c>
-      <c r="W22" s="4" t="n">
+      <c r="W22" s="4">
         <v>49927.81</v>
       </c>
       <c r="AD22" t="s">
         <v>106</v>
       </c>
-      <c r="AE22" s="7" t="n">
-        <v>77.00658576079354</v>
-      </c>
-      <c r="AF22" s="7" t="n">
-        <v>115.6299785254903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AE22" s="7">
+        <f t="shared" si="0"/>
+        <v>77.006585760793541</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="1"/>
+        <v>115.62997852549033</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>34851.06</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>1013.06</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>144.852</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>10607.11</v>
       </c>
-      <c r="I23" s="3" t="n">
-        <v>8.922000000000001</v>
-      </c>
-      <c r="J23" s="4" t="n">
+      <c r="I23" s="3">
+        <v>8.9220000000000006</v>
+      </c>
+      <c r="J23" s="4">
         <v>708.24</v>
       </c>
-      <c r="M23" s="4" t="n">
+      <c r="M23" s="4">
         <v>480.13</v>
       </c>
-      <c r="N23" s="3" t="n">
-        <v>4.453</v>
-      </c>
-      <c r="O23" s="4" t="n">
-        <v>318.79</v>
-      </c>
-      <c r="P23" s="3" t="n">
+      <c r="N23" s="3">
+        <v>4.4530000000000003</v>
+      </c>
+      <c r="O23" s="4">
+        <v>318.79000000000002</v>
+      </c>
+      <c r="P23" s="3">
         <v>158.227</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="Q23" s="2">
         <v>12114.27</v>
       </c>
-      <c r="R23" s="4" t="n">
+      <c r="R23" s="4">
         <v>18801.25</v>
       </c>
-      <c r="S23" s="4" t="n">
-        <v>136.33</v>
-      </c>
-      <c r="T23" s="4" t="n">
+      <c r="S23" s="4">
+        <v>136.33000000000001</v>
+      </c>
+      <c r="T23" s="4">
         <v>204.59</v>
       </c>
-      <c r="W23" s="4" t="n">
+      <c r="W23" s="4">
         <v>2581.56</v>
       </c>
       <c r="AD23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" s="7" t="n">
-        <v>76.56259677551871</v>
-      </c>
-      <c r="AF23" s="7" t="n">
-        <v>113.5462900694911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AE23" s="7">
+        <f t="shared" si="0"/>
+        <v>76.562596775518713</v>
+      </c>
+      <c r="AF23" s="7">
+        <f t="shared" si="1"/>
+        <v>113.54629006949114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>1471.74</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>144.07</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>13.214</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>967.62</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="3">
         <v>1.212</v>
       </c>
-      <c r="J24" s="4" t="n">
+      <c r="J24" s="4">
         <v>96.2</v>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="4">
         <v>65.22</v>
       </c>
-      <c r="N24" s="3" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="O24" s="4" t="n">
+      <c r="N24" s="3">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="O24" s="4">
         <v>43.3</v>
       </c>
-      <c r="P24" s="3" t="n">
-        <v>15.031</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>1172.34</v>
-      </c>
-      <c r="S24" s="4" t="n">
+      <c r="P24" s="3">
+        <v>15.031000000000001</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1172.3399999999999</v>
+      </c>
+      <c r="S24" s="4">
         <v>18.52</v>
       </c>
-      <c r="T24" s="4" t="n">
+      <c r="T24" s="4">
         <v>27.79</v>
       </c>
-      <c r="W24" s="4" t="n">
+      <c r="W24" s="4">
         <v>109.02</v>
       </c>
       <c r="AD24" t="s">
         <v>106</v>
       </c>
-      <c r="AE24" s="7" t="n">
-        <v>77.99481072450268</v>
-      </c>
-      <c r="AF24" s="7" t="n">
-        <v>118.8696369636964</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AE24" s="7">
+        <f t="shared" si="0"/>
+        <v>77.994810724502685</v>
+      </c>
+      <c r="AF24" s="7">
+        <f t="shared" si="1"/>
+        <v>118.86963696369637</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>58762.25</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>5552.56</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>433.583</v>
-      </c>
-      <c r="F25" s="2" t="n">
+      <c r="E25" s="3">
+        <v>433.58300000000003</v>
+      </c>
+      <c r="F25" s="2">
         <v>31750.07</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3">
         <v>46.125</v>
       </c>
-      <c r="J25" s="4" t="n">
+      <c r="J25" s="4">
         <v>3661.45</v>
       </c>
-      <c r="M25" s="4" t="n">
+      <c r="M25" s="4">
         <v>2482.16</v>
       </c>
-      <c r="N25" s="3" t="n">
+      <c r="N25" s="3">
         <v>23.02</v>
       </c>
-      <c r="O25" s="4" t="n">
+      <c r="O25" s="4">
         <v>1648.05</v>
       </c>
-      <c r="P25" s="3" t="n">
-        <v>502.728</v>
-      </c>
-      <c r="Q25" s="2" t="n">
-        <v>39541.73</v>
-      </c>
-      <c r="R25" s="4" t="n">
+      <c r="P25" s="3">
+        <v>502.72800000000001</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>39541.730000000003</v>
+      </c>
+      <c r="R25" s="4">
         <v>7552.73</v>
       </c>
-      <c r="S25" s="4" t="n">
+      <c r="S25" s="4">
         <v>704.78</v>
       </c>
-      <c r="T25" s="4" t="n">
+      <c r="T25" s="4">
         <v>1057.69</v>
       </c>
-      <c r="W25" s="4" t="n">
+      <c r="W25" s="4">
         <v>4352.76</v>
       </c>
       <c r="AD25" t="s">
         <v>106</v>
       </c>
-      <c r="AE25" s="7" t="n">
-        <v>78.654322019064</v>
-      </c>
-      <c r="AF25" s="7" t="n">
-        <v>120.3807046070461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AE25" s="7">
+        <f t="shared" si="0"/>
+        <v>78.654322019063997</v>
+      </c>
+      <c r="AF25" s="7">
+        <f t="shared" si="1"/>
+        <v>120.38070460704608</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>27436.34</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>3523.34</v>
       </c>
-      <c r="E26" s="3" t="n">
-        <v>217.276</v>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="E26" s="3">
+        <v>217.27600000000001</v>
+      </c>
+      <c r="F26" s="2">
         <v>15910.51</v>
       </c>
-      <c r="I26" s="3" t="n">
-        <v>28.822</v>
-      </c>
-      <c r="J26" s="4" t="n">
+      <c r="I26" s="3">
+        <v>28.821999999999999</v>
+      </c>
+      <c r="J26" s="4">
         <v>2287.96</v>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="M26" s="4">
         <v>1551.05</v>
       </c>
-      <c r="N26" s="3" t="n">
+      <c r="N26" s="3">
         <v>14.385</v>
       </c>
-      <c r="O26" s="4" t="n">
+      <c r="O26" s="4">
         <v>1029.83</v>
       </c>
-      <c r="P26" s="3" t="n">
+      <c r="P26" s="3">
         <v>260.483</v>
       </c>
-      <c r="Q26" s="2" t="n">
-        <v>20779.35</v>
-      </c>
-      <c r="S26" s="4" t="n">
+      <c r="Q26" s="2">
+        <v>20779.349999999999</v>
+      </c>
+      <c r="S26" s="4">
         <v>440.4</v>
       </c>
-      <c r="T26" s="4" t="n">
-        <v>660.9299999999999</v>
-      </c>
-      <c r="W26" s="4" t="n">
+      <c r="T26" s="4">
+        <v>660.93</v>
+      </c>
+      <c r="W26" s="4">
         <v>2032.32</v>
       </c>
       <c r="AD26" t="s">
         <v>106</v>
       </c>
-      <c r="AE26" s="7" t="n">
-        <v>79.77238437825116</v>
-      </c>
-      <c r="AF26" s="7" t="n">
-        <v>122.244812990077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AE26" s="7">
+        <f t="shared" si="0"/>
+        <v>79.772384378251161</v>
+      </c>
+      <c r="AF26" s="7">
+        <f t="shared" si="1"/>
+        <v>122.24481299007704</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>6140.51</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>1037.24</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="3">
         <v>40</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>2929.09</v>
       </c>
-      <c r="I27" s="3" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J27" s="4" t="n">
+      <c r="I27" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J27" s="4">
         <v>658.9</v>
       </c>
-      <c r="M27" s="4" t="n">
+      <c r="M27" s="4">
         <v>446.68</v>
       </c>
-      <c r="N27" s="3" t="n">
-        <v>4.143</v>
-      </c>
-      <c r="O27" s="4" t="n">
+      <c r="N27" s="3">
+        <v>4.1429999999999998</v>
+      </c>
+      <c r="O27" s="4">
         <v>296.58</v>
       </c>
-      <c r="P27" s="3" t="n">
-        <v>52.443</v>
-      </c>
-      <c r="Q27" s="2" t="n">
+      <c r="P27" s="3">
+        <v>52.442999999999998</v>
+      </c>
+      <c r="Q27" s="2">
         <v>4331.25</v>
       </c>
-      <c r="S27" s="4" t="n">
+      <c r="S27" s="4">
         <v>126.83</v>
       </c>
-      <c r="T27" s="4" t="n">
+      <c r="T27" s="4">
         <v>190.34</v>
       </c>
-      <c r="W27" s="4" t="n">
+      <c r="W27" s="4">
         <v>454.85</v>
       </c>
       <c r="AD27" t="s">
         <v>106</v>
       </c>
-      <c r="AE27" s="7" t="n">
-        <v>82.58966878325039</v>
-      </c>
-      <c r="AF27" s="7" t="n">
-        <v>124.9686746987952</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AE27" s="7">
+        <f t="shared" si="0"/>
+        <v>82.589668783250389</v>
+      </c>
+      <c r="AF27" s="7">
+        <f t="shared" si="1"/>
+        <v>124.96867469879517</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>7959.05</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>614.72</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>77.164</v>
-      </c>
-      <c r="F28" s="2" t="n">
+      <c r="E28" s="3">
+        <v>77.164000000000001</v>
+      </c>
+      <c r="F28" s="2">
         <v>5650.5</v>
       </c>
-      <c r="I28" s="3" t="n">
-        <v>5.331</v>
-      </c>
-      <c r="J28" s="4" t="n">
+      <c r="I28" s="3">
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="J28" s="4">
         <v>423.19</v>
       </c>
-      <c r="M28" s="4" t="n">
+      <c r="M28" s="4">
         <v>286.89</v>
       </c>
-      <c r="N28" s="3" t="n">
+      <c r="N28" s="3">
         <v>2.661</v>
       </c>
-      <c r="O28" s="4" t="n">
+      <c r="O28" s="4">
         <v>190.48</v>
       </c>
-      <c r="P28" s="3" t="n">
-        <v>85.15600000000001</v>
-      </c>
-      <c r="Q28" s="2" t="n">
+      <c r="P28" s="3">
+        <v>85.156000000000006</v>
+      </c>
+      <c r="Q28" s="2">
         <v>6551.06</v>
       </c>
-      <c r="S28" s="4" t="n">
-        <v>81.45999999999999</v>
-      </c>
-      <c r="T28" s="4" t="n">
+      <c r="S28" s="4">
+        <v>81.459999999999994</v>
+      </c>
+      <c r="T28" s="4">
         <v>122.25</v>
       </c>
-      <c r="W28" s="4" t="n">
-        <v>589.5599999999999</v>
+      <c r="W28" s="4">
+        <v>589.55999999999995</v>
       </c>
       <c r="AD28" t="s">
         <v>106</v>
       </c>
-      <c r="AE28" s="7" t="n">
+      <c r="AE28" s="7">
+        <f t="shared" si="0"/>
         <v>76.93010474893137</v>
       </c>
-      <c r="AF28" s="7" t="n">
+      <c r="AF28" s="7">
+        <f t="shared" si="1"/>
         <v>115.3104483211405</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>35716.52</v>
-      </c>
-      <c r="D29" s="2" t="n">
+      <c r="C29" s="2">
+        <v>35716.519999999997</v>
+      </c>
+      <c r="D29" s="2">
         <v>2840.54</v>
       </c>
-      <c r="E29" s="3" t="n">
-        <v>343.432</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>25148.56</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>24.533</v>
-      </c>
-      <c r="J29" s="4" t="n">
+      <c r="E29" s="3">
+        <v>343.43200000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>25148.560000000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>24.533000000000001</v>
+      </c>
+      <c r="J29" s="4">
         <v>1947.49</v>
       </c>
-      <c r="M29" s="4" t="n">
+      <c r="M29" s="4">
         <v>1320.24</v>
       </c>
-      <c r="N29" s="3" t="n">
+      <c r="N29" s="3">
         <v>12.244</v>
       </c>
-      <c r="O29" s="4" t="n">
+      <c r="O29" s="4">
         <v>876.58</v>
       </c>
-      <c r="P29" s="3" t="n">
+      <c r="P29" s="3">
         <v>380.209</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="Q29" s="2">
         <v>29292.87</v>
       </c>
-      <c r="S29" s="4" t="n">
+      <c r="S29" s="4">
         <v>374.87</v>
       </c>
-      <c r="T29" s="4" t="n">
-        <v>562.5700000000001</v>
-      </c>
-      <c r="W29" s="4" t="n">
+      <c r="T29" s="4">
+        <v>562.57000000000005</v>
+      </c>
+      <c r="W29" s="4">
         <v>2645.67</v>
       </c>
       <c r="AD29" t="s">
         <v>106</v>
       </c>
-      <c r="AE29" s="7" t="n">
-        <v>77.04412573084802</v>
-      </c>
-      <c r="AF29" s="7" t="n">
-        <v>115.7844535931195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AE29" s="7">
+        <f t="shared" si="0"/>
+        <v>77.044125730848023</v>
+      </c>
+      <c r="AF29" s="7">
+        <f t="shared" si="1"/>
+        <v>115.78445359311947</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>546218.72</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>7905.75</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>639.95</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="E30" s="3">
+        <v>639.95000000000005</v>
+      </c>
+      <c r="F30" s="2">
         <v>46861.74</v>
       </c>
-      <c r="I30" s="3" t="n">
-        <v>65.84699999999999</v>
-      </c>
-      <c r="J30" s="4" t="n">
+      <c r="I30" s="3">
+        <v>65.846999999999994</v>
+      </c>
+      <c r="J30" s="4">
         <v>5227.01</v>
       </c>
-      <c r="M30" s="4" t="n">
+      <c r="M30" s="4">
         <v>3543.48</v>
       </c>
-      <c r="N30" s="3" t="n">
-        <v>32.864</v>
-      </c>
-      <c r="O30" s="4" t="n">
-        <v>2352.72</v>
-      </c>
-      <c r="P30" s="3" t="n">
-        <v>738.6609999999999</v>
-      </c>
-      <c r="Q30" s="2" t="n">
+      <c r="N30" s="3">
+        <v>32.863999999999997</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2352.7199999999998</v>
+      </c>
+      <c r="P30" s="3">
+        <v>738.66099999999994</v>
+      </c>
+      <c r="Q30" s="2">
         <v>57984.95</v>
       </c>
-      <c r="R30" s="4" t="n">
+      <c r="R30" s="4">
         <v>437351.31</v>
       </c>
-      <c r="S30" s="4" t="n">
+      <c r="S30" s="4">
         <v>1006.13</v>
       </c>
-      <c r="T30" s="4" t="n">
+      <c r="T30" s="4">
         <v>1509.93</v>
       </c>
-      <c r="W30" s="4" t="n">
+      <c r="W30" s="4">
         <v>40460.65</v>
       </c>
       <c r="AD30" t="s">
         <v>106</v>
       </c>
-      <c r="AE30" s="7" t="n">
-        <v>78.50008325876146</v>
-      </c>
-      <c r="AF30" s="7" t="n">
-        <v>120.062417422206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AE30" s="7">
+        <f t="shared" si="0"/>
+        <v>78.500083258761464</v>
+      </c>
+      <c r="AF30" s="7">
+        <f t="shared" si="1"/>
+        <v>120.06241742220604</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>16306.67</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>1320.44</v>
       </c>
-      <c r="E31" s="3" t="n">
-        <v>155.979</v>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="E31" s="3">
+        <v>155.97900000000001</v>
+      </c>
+      <c r="F31" s="2">
         <v>11421.9</v>
       </c>
-      <c r="I31" s="3" t="n">
-        <v>11.376</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>903.0599999999999</v>
-      </c>
-      <c r="M31" s="4" t="n">
-        <v>612.2</v>
-      </c>
-      <c r="N31" s="3" t="n">
-        <v>5.678</v>
-      </c>
-      <c r="O31" s="4" t="n">
+      <c r="I31" s="3">
+        <v>11.375999999999999</v>
+      </c>
+      <c r="J31" s="4">
+        <v>903.06</v>
+      </c>
+      <c r="M31" s="4">
+        <v>612.20000000000005</v>
+      </c>
+      <c r="N31" s="3">
+        <v>5.6779999999999999</v>
+      </c>
+      <c r="O31" s="4">
         <v>406.47</v>
       </c>
-      <c r="P31" s="3" t="n">
-        <v>173.033</v>
-      </c>
-      <c r="Q31" s="2" t="n">
+      <c r="P31" s="3">
+        <v>173.03299999999999</v>
+      </c>
+      <c r="Q31" s="2">
         <v>13343.63</v>
       </c>
-      <c r="S31" s="4" t="n">
+      <c r="S31" s="4">
         <v>173.83</v>
       </c>
-      <c r="T31" s="4" t="n">
+      <c r="T31" s="4">
         <v>260.87</v>
       </c>
-      <c r="W31" s="4" t="n">
-        <v>1207.9</v>
+      <c r="W31" s="4">
+        <v>1207.9000000000001</v>
       </c>
       <c r="AD31" t="s">
         <v>106</v>
       </c>
-      <c r="AE31" s="7" t="n">
-        <v>77.11609924118521</v>
-      </c>
-      <c r="AF31" s="7" t="n">
-        <v>116.0724331926864</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AE31" s="7">
+        <f t="shared" si="0"/>
+        <v>77.116099241185211</v>
+      </c>
+      <c r="AF31" s="7">
+        <f t="shared" si="1"/>
+        <v>116.07243319268636</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>1682.46</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>256.58</v>
       </c>
-      <c r="E32" s="3" t="n">
-        <v>11.918</v>
-      </c>
-      <c r="F32" s="2" t="n">
+      <c r="E32" s="3">
+        <v>11.917999999999999</v>
+      </c>
+      <c r="F32" s="2">
         <v>872.72</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="3">
         <v>2.069</v>
       </c>
-      <c r="J32" s="4" t="n">
+      <c r="J32" s="4">
         <v>164.23</v>
       </c>
-      <c r="M32" s="4" t="n">
+      <c r="M32" s="4">
         <v>111.33</v>
       </c>
-      <c r="N32" s="3" t="n">
-        <v>1.033</v>
-      </c>
-      <c r="O32" s="4" t="n">
+      <c r="N32" s="3">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="O32" s="4">
         <v>73.92</v>
       </c>
-      <c r="P32" s="3" t="n">
+      <c r="P32" s="3">
         <v>15.02</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="Q32" s="2">
         <v>1222.2</v>
       </c>
-      <c r="S32" s="4" t="n">
+      <c r="S32" s="4">
         <v>31.61</v>
       </c>
-      <c r="T32" s="4" t="n">
+      <c r="T32" s="4">
         <v>47.44</v>
       </c>
-      <c r="W32" s="4" t="n">
+      <c r="W32" s="4">
         <v>124.63</v>
       </c>
       <c r="AD32" t="s">
         <v>106</v>
       </c>
-      <c r="AE32" s="7" t="n">
-        <v>81.37150466045273</v>
-      </c>
-      <c r="AF32" s="7" t="n">
-        <v>124.0115998066699</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AE32" s="7">
+        <f t="shared" si="0"/>
+        <v>81.371504660452729</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="1"/>
+        <v>124.01159980666988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>28751.22</v>
       </c>
-      <c r="R33" s="4" t="n">
+      <c r="R33" s="4">
         <v>26621.5</v>
       </c>
-      <c r="W33" s="4" t="n">
-        <v>2129.72</v>
+      <c r="W33" s="4">
+        <v>2129.7199999999998</v>
       </c>
       <c r="AD33" t="s">
         <v>106</v>
       </c>
-      <c r="AE33" s="7" t="s">
+      <c r="AE33" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF33" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AF33" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32">
-      <c r="B34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>26898.36</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2">
         <v>1778.96</v>
       </c>
-      <c r="E34" s="3" t="n">
-        <v>271.141</v>
-      </c>
-      <c r="F34" s="2" t="n">
+      <c r="E34" s="3">
+        <v>271.14100000000002</v>
+      </c>
+      <c r="F34" s="2">
         <v>19854.89</v>
       </c>
-      <c r="I34" s="3" t="n">
-        <v>15.796</v>
-      </c>
-      <c r="J34" s="4" t="n">
+      <c r="I34" s="3">
+        <v>15.795999999999999</v>
+      </c>
+      <c r="J34" s="4">
         <v>1253.95</v>
       </c>
-      <c r="M34" s="4" t="n">
+      <c r="M34" s="4">
         <v>850.08</v>
       </c>
-      <c r="N34" s="3" t="n">
-        <v>7.884</v>
-      </c>
-      <c r="O34" s="4" t="n">
+      <c r="N34" s="3">
+        <v>7.8840000000000003</v>
+      </c>
+      <c r="O34" s="4">
         <v>564.41</v>
       </c>
-      <c r="P34" s="3" t="n">
-        <v>294.821</v>
-      </c>
-      <c r="Q34" s="2" t="n">
+      <c r="P34" s="3">
+        <v>294.82100000000003</v>
+      </c>
+      <c r="Q34" s="2">
         <v>22523.33</v>
       </c>
-      <c r="S34" s="4" t="n">
+      <c r="S34" s="4">
         <v>241.37</v>
       </c>
-      <c r="T34" s="4" t="n">
+      <c r="T34" s="4">
         <v>362.23</v>
       </c>
-      <c r="W34" s="4" t="n">
+      <c r="W34" s="4">
         <v>1992.47</v>
       </c>
       <c r="AD34" t="s">
         <v>106</v>
       </c>
-      <c r="AE34" s="7" t="n">
-        <v>76.39662710593886</v>
-      </c>
-      <c r="AF34" s="7" t="n">
-        <v>112.6209166877691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AE34" s="7">
+        <f t="shared" si="0"/>
+        <v>76.396627105938862</v>
+      </c>
+      <c r="AF34" s="7">
+        <f t="shared" si="1"/>
+        <v>112.62091668776907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="C35" s="2">
         <v>16298.61</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>1219.66</v>
-      </c>
-      <c r="E35" s="3" t="n">
+      <c r="D35" s="2">
+        <v>1219.6600000000001</v>
+      </c>
+      <c r="E35" s="3">
         <v>159.376</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>11670.66</v>
       </c>
-      <c r="I35" s="3" t="n">
-        <v>10.626</v>
-      </c>
-      <c r="J35" s="4" t="n">
+      <c r="I35" s="3">
+        <v>10.625999999999999</v>
+      </c>
+      <c r="J35" s="4">
         <v>843.49</v>
       </c>
-      <c r="M35" s="4" t="n">
-        <v>571.8200000000001</v>
-      </c>
-      <c r="N35" s="3" t="n">
-        <v>5.303</v>
-      </c>
-      <c r="O35" s="4" t="n">
+      <c r="M35" s="4">
+        <v>571.82000000000005</v>
+      </c>
+      <c r="N35" s="3">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="O35" s="4">
         <v>379.66</v>
       </c>
-      <c r="P35" s="3" t="n">
-        <v>175.305</v>
-      </c>
-      <c r="Q35" s="2" t="n">
+      <c r="P35" s="3">
+        <v>175.30500000000001</v>
+      </c>
+      <c r="Q35" s="2">
         <v>13465.63</v>
       </c>
-      <c r="S35" s="4" t="n">
-        <v>162.36</v>
-      </c>
-      <c r="T35" s="4" t="n">
+      <c r="S35" s="4">
+        <v>162.36000000000001</v>
+      </c>
+      <c r="T35" s="4">
         <v>243.66</v>
       </c>
-      <c r="W35" s="4" t="n">
+      <c r="W35" s="4">
         <v>1207.3</v>
       </c>
       <c r="AD35" t="s">
         <v>106</v>
       </c>
-      <c r="AE35" s="7" t="n">
-        <v>76.8125837825504</v>
-      </c>
-      <c r="AF35" s="7" t="n">
-        <v>114.780726519857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AE35" s="7">
+        <f t="shared" si="0"/>
+        <v>76.812583782550405</v>
+      </c>
+      <c r="AF35" s="7">
+        <f t="shared" si="1"/>
+        <v>114.78072651985697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="C36" s="2">
         <v>119556.31</v>
       </c>
-      <c r="T36" s="4" t="n">
+      <c r="T36" s="4">
         <v>110700.29</v>
       </c>
-      <c r="W36" s="4" t="n">
+      <c r="W36" s="4">
         <v>8856.02</v>
       </c>
       <c r="AD36" t="s">
         <v>106</v>
       </c>
-      <c r="AE36" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF36" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AE36" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF36" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="C37" s="2">
         <v>120.99</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>1.301</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>95.2685785491179</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3" t="n">
-        <v>1.301</v>
-      </c>
-      <c r="Q37" s="2" t="n">
+      <c r="D37" s="2">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>95.268578549117905</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="Q37" s="2">
         <v>95.27</v>
       </c>
-      <c r="R37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="4" t="n">
-        <v>8.962400000000001</v>
-      </c>
-      <c r="X37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="7" t="n">
-        <v>73.228285933897</v>
-      </c>
-      <c r="AF37" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>8.9624000000000006</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="7">
+        <f t="shared" si="0"/>
+        <v>73.228285933896998</v>
+      </c>
+      <c r="AF37" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>120.99</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>1.301</v>
-      </c>
-      <c r="F38" s="2" t="n">
+      <c r="D38" s="2">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="F38" s="2">
         <v>95.27</v>
       </c>
-      <c r="P38" s="3" t="n">
-        <v>1.301</v>
-      </c>
-      <c r="Q38" s="2" t="n">
+      <c r="P38" s="3">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="Q38" s="2">
         <v>95.27</v>
       </c>
-      <c r="W38" s="4" t="n">
-        <v>8.960000000000001</v>
+      <c r="W38" s="4">
+        <v>8.9600000000000009</v>
       </c>
       <c r="AD38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE38" s="7">
+        <f t="shared" si="0"/>
+        <v>73.228285933896998</v>
+      </c>
+      <c r="AF38" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AE38" s="7" t="n">
-        <v>73.228285933897</v>
-      </c>
-      <c r="AF38" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32">
-      <c r="A39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>1011.32</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>124.47</v>
       </c>
-      <c r="E39" s="3" t="n">
-        <v>11.088</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>811.9431198713446</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3" t="n">
-        <v>11.088</v>
-      </c>
-      <c r="Q39" s="2" t="n">
-        <v>811.9400000000001</v>
-      </c>
-      <c r="R39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="4" t="n">
-        <v>74.9128</v>
-      </c>
-      <c r="X39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="7" t="n">
-        <v>73.22691197691199</v>
-      </c>
-      <c r="AF39" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="E39" s="3">
+        <v>11.087999999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>811.94311987134461</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>11.087999999999999</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>811.94</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0</v>
+      </c>
+      <c r="V39" s="4">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4">
+        <v>74.912800000000004</v>
+      </c>
+      <c r="X39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7">
+        <f t="shared" si="0"/>
+        <v>73.226911976911992</v>
+      </c>
+      <c r="AF39" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>1011.32</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="2">
         <v>124.47</v>
       </c>
-      <c r="E40" s="3" t="n">
-        <v>11.088</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>811.9400000000001</v>
-      </c>
-      <c r="P40" s="3" t="n">
-        <v>11.088</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>811.9400000000001</v>
-      </c>
-      <c r="W40" s="4" t="n">
+      <c r="E40" s="3">
+        <v>11.087999999999999</v>
+      </c>
+      <c r="F40" s="2">
+        <v>811.94</v>
+      </c>
+      <c r="P40" s="3">
+        <v>11.087999999999999</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>811.94</v>
+      </c>
+      <c r="W40" s="4">
         <v>74.91</v>
       </c>
       <c r="AD40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE40" s="7">
+        <f t="shared" si="0"/>
+        <v>73.226911976911992</v>
+      </c>
+      <c r="AF40" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AE40" s="7" t="n">
-        <v>73.22691197691199</v>
-      </c>
-      <c r="AF40" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32">
-      <c r="A41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>693.46</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2">
         <v>70.33</v>
       </c>
-      <c r="E41" s="3" t="n">
-        <v>7.808</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>571.7579256814087</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="n">
-        <v>7.808</v>
-      </c>
-      <c r="Q41" s="2" t="n">
+      <c r="E41" s="3">
+        <v>7.8079999999999998</v>
+      </c>
+      <c r="F41" s="2">
+        <v>571.75792568140866</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>7.8079999999999998</v>
+      </c>
+      <c r="Q41" s="2">
         <v>571.76</v>
       </c>
-      <c r="R41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="4" t="n">
-        <v>51.3672</v>
-      </c>
-      <c r="X41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="7" t="n">
-        <v>73.22745901639344</v>
-      </c>
-      <c r="AF41" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>51.367199999999997</v>
+      </c>
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="7">
+        <f t="shared" si="0"/>
+        <v>73.227459016393439</v>
+      </c>
+      <c r="AF41" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>693.46</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="2">
         <v>70.33</v>
       </c>
-      <c r="E42" s="3" t="n">
-        <v>7.808</v>
-      </c>
-      <c r="F42" s="2" t="n">
+      <c r="E42" s="3">
+        <v>7.8079999999999998</v>
+      </c>
+      <c r="F42" s="2">
         <v>571.76</v>
       </c>
-      <c r="P42" s="3" t="n">
-        <v>7.808</v>
-      </c>
-      <c r="Q42" s="2" t="n">
+      <c r="P42" s="3">
+        <v>7.8079999999999998</v>
+      </c>
+      <c r="Q42" s="2">
         <v>571.76</v>
       </c>
-      <c r="W42" s="4" t="n">
+      <c r="W42" s="4">
         <v>51.37</v>
       </c>
       <c r="AD42" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE42" s="7">
+        <f t="shared" si="0"/>
+        <v>73.227459016393439</v>
+      </c>
+      <c r="AF42" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AE42" s="7" t="n">
-        <v>73.22745901639344</v>
-      </c>
-      <c r="AF42" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32">
-      <c r="A43" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>-35678.73</v>
-      </c>
-      <c r="D43" s="2" t="n">
+      <c r="C43" s="2">
+        <v>-35678.730000000003</v>
+      </c>
+      <c r="D43" s="2">
         <v>5591.26</v>
       </c>
-      <c r="E43" s="3" t="n">
-        <v>-527.497</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>-38627.1248108563</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="n">
-        <v>-527.497</v>
-      </c>
-      <c r="Q43" s="2" t="n">
-        <v>-38627.12</v>
-      </c>
-      <c r="R43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="4" t="n">
-        <v>-2642.8688</v>
-      </c>
-      <c r="X43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="7" t="n">
-        <v>73.22718423043165</v>
-      </c>
-      <c r="AF43" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="E43" s="3">
+        <v>-527.49699999999996</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-38627.124810856301</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>-527.49699999999996</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>-38627.120000000003</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>-2642.8688000000002</v>
+      </c>
+      <c r="X43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="7">
+        <f t="shared" si="0"/>
+        <v>73.227184230431646</v>
+      </c>
+      <c r="AF43" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>-35678.73</v>
-      </c>
-      <c r="D44" s="2" t="n">
+      <c r="C44" s="2">
+        <v>-35678.730000000003</v>
+      </c>
+      <c r="D44" s="2">
         <v>5591.26</v>
       </c>
-      <c r="E44" s="3" t="n">
-        <v>-527.497</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-38627.12</v>
-      </c>
-      <c r="P44" s="3" t="n">
-        <v>-527.497</v>
-      </c>
-      <c r="Q44" s="2" t="n">
-        <v>-38627.12</v>
-      </c>
-      <c r="W44" s="4" t="n">
+      <c r="E44" s="3">
+        <v>-527.49699999999996</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-38627.120000000003</v>
+      </c>
+      <c r="P44" s="3">
+        <v>-527.49699999999996</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>-38627.120000000003</v>
+      </c>
+      <c r="W44" s="4">
         <v>-2642.87</v>
       </c>
       <c r="AD44" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE44" s="7">
+        <f t="shared" si="0"/>
+        <v>73.227184230431646</v>
+      </c>
+      <c r="AF44" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE44" s="7" t="n">
-        <v>73.22718423043165</v>
-      </c>
-      <c r="AF44" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32">
-      <c r="A45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>135355.04</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>-27678.08</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>2089.481</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>153006.8291893846</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="n">
-        <v>2089.481</v>
-      </c>
-      <c r="Q45" s="2" t="n">
+      <c r="D45" s="2">
+        <v>-27678.080000000002</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2089.4810000000002</v>
+      </c>
+      <c r="F45" s="2">
+        <v>153006.82918938459</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>2089.4810000000002</v>
+      </c>
+      <c r="Q45" s="2">
         <v>153006.82</v>
       </c>
-      <c r="R45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="4" t="n">
-        <v>10026.2992</v>
-      </c>
-      <c r="X45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="7" t="n">
-        <v>73.22718895266335</v>
-      </c>
-      <c r="AF45" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0</v>
+      </c>
+      <c r="U45" s="4">
+        <v>0</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>10026.299199999999</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="7">
+        <f t="shared" si="0"/>
+        <v>73.227188952663354</v>
+      </c>
+      <c r="AF45" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>42725.71</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="2">
         <v>-8428.67</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="3">
         <v>655.351</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2">
         <v>47989.51</v>
       </c>
-      <c r="P46" s="3" t="n">
+      <c r="P46" s="3">
         <v>655.351</v>
       </c>
-      <c r="Q46" s="2" t="n">
+      <c r="Q46" s="2">
         <v>47989.51</v>
       </c>
-      <c r="W46" s="4" t="n">
+      <c r="W46" s="4">
         <v>3164.87</v>
       </c>
       <c r="AD46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE46" s="7" t="n">
+        <v>148</v>
+      </c>
+      <c r="AE46" s="7">
+        <f t="shared" si="0"/>
         <v>73.22718665264874</v>
       </c>
-      <c r="AF46" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AF46" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>92629.33</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="2">
         <v>-19249.41</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="3">
         <v>1434.13</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2">
         <v>105017.31</v>
       </c>
-      <c r="P47" s="3" t="n">
+      <c r="P47" s="3">
         <v>1434.13</v>
       </c>
-      <c r="Q47" s="2" t="n">
+      <c r="Q47" s="2">
         <v>105017.31</v>
       </c>
-      <c r="W47" s="4" t="n">
+      <c r="W47" s="4">
         <v>6861.43</v>
       </c>
       <c r="AD47" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE47" s="7">
+        <f t="shared" si="0"/>
+        <v>73.227190003695611</v>
+      </c>
+      <c r="AF47" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AE47" s="7" t="n">
-        <v>73.22719000369561</v>
-      </c>
-      <c r="AF47" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32">
-      <c r="A48" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>-50548.75</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="2">
         <v>-15631.73</v>
       </c>
-      <c r="E48" s="3" t="n">
-        <v>-425.698</v>
-      </c>
-      <c r="F48" s="2" t="n">
+      <c r="E48" s="3">
+        <v>-425.69799999999998</v>
+      </c>
+      <c r="F48" s="2">
         <v>-31172.66975495957</v>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="n">
-        <v>-425.698</v>
-      </c>
-      <c r="Q48" s="2" t="n">
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>-425.69799999999998</v>
+      </c>
+      <c r="Q48" s="2">
         <v>-31172.67</v>
       </c>
-      <c r="R48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="4" t="n">
-        <v>-3744.352</v>
-      </c>
-      <c r="X48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="7" t="n">
-        <v>73.2271939262106</v>
-      </c>
-      <c r="AF48" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="R48" s="4">
+        <v>0</v>
+      </c>
+      <c r="S48" s="4">
+        <v>0</v>
+      </c>
+      <c r="T48" s="4">
+        <v>0</v>
+      </c>
+      <c r="U48" s="4">
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
+        <v>0</v>
+      </c>
+      <c r="W48" s="4">
+        <v>-3744.3519999999999</v>
+      </c>
+      <c r="X48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="7">
+        <f t="shared" si="0"/>
+        <v>73.227193926210603</v>
+      </c>
+      <c r="AF48" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="2">
         <v>-50548.75</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="2">
         <v>-15631.73</v>
       </c>
-      <c r="E49" s="3" t="n">
-        <v>-425.698</v>
-      </c>
-      <c r="F49" s="2" t="n">
+      <c r="E49" s="3">
+        <v>-425.69799999999998</v>
+      </c>
+      <c r="F49" s="2">
         <v>-31172.67</v>
       </c>
-      <c r="P49" s="3" t="n">
-        <v>-425.698</v>
-      </c>
-      <c r="Q49" s="2" t="n">
+      <c r="P49" s="3">
+        <v>-425.69799999999998</v>
+      </c>
+      <c r="Q49" s="2">
         <v>-31172.67</v>
       </c>
-      <c r="W49" s="4" t="n">
+      <c r="W49" s="4">
         <v>-3744.35</v>
       </c>
       <c r="AD49" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE49" s="7">
+        <f t="shared" si="0"/>
+        <v>73.227193926210603</v>
+      </c>
+      <c r="AF49" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AE49" s="7" t="n">
-        <v>73.2271939262106</v>
-      </c>
-      <c r="AF49" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32">
-      <c r="B50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>6317922.71</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>494174.45</v>
       </c>
-      <c r="E50" s="3" t="n">
-        <v>41554.379</v>
-      </c>
-      <c r="F50" s="2" t="n">
+      <c r="E50" s="3">
+        <v>41554.379000000001</v>
+      </c>
+      <c r="F50" s="2">
         <v>3042910.53</v>
       </c>
-      <c r="I50" s="3" t="n">
-        <v>4408.001</v>
-      </c>
-      <c r="J50" s="4" t="n">
+      <c r="I50" s="3">
+        <v>4408.0010000000002</v>
+      </c>
+      <c r="J50" s="4">
         <v>349914.65</v>
       </c>
-      <c r="M50" s="4" t="n">
+      <c r="M50" s="4">
         <v>237213.1</v>
       </c>
-      <c r="N50" s="3" t="n">
+      <c r="N50" s="3">
         <v>2200.002</v>
       </c>
-      <c r="O50" s="4" t="n">
+      <c r="O50" s="4">
         <v>157499.49</v>
       </c>
-      <c r="P50" s="3" t="n">
-        <v>48162.382</v>
-      </c>
-      <c r="Q50" s="2" t="n">
+      <c r="P50" s="3">
+        <v>48162.381999999998</v>
+      </c>
+      <c r="Q50" s="2">
         <v>3787537.77</v>
       </c>
-      <c r="R50" s="4" t="n">
+      <c r="R50" s="4">
         <v>620143.02</v>
       </c>
-      <c r="S50" s="4" t="n">
+      <c r="S50" s="4">
         <v>67354.19</v>
       </c>
-      <c r="T50" s="4" t="n">
+      <c r="T50" s="4">
         <v>211780.44</v>
       </c>
-      <c r="U50" s="4" t="n">
+      <c r="U50" s="4">
         <v>668938.64</v>
       </c>
-      <c r="W50" s="4" t="n">
+      <c r="W50" s="4">
         <v>467994.2</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>78.64099765663585</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>112.1085158555998</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Shell &amp; Core, Tenant Improvement, Office, Residential, Parking Garage"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1.9" footer="0.5" header="0.5" left="1.8" right="1.8" top="1.9"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <pageMargins left="1.8" right="1.8" top="1.9" bottom="1.9" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:S43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/export2.xlsx
+++ b/export2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stick\Documents\Python\Programs\Excel\ExcelMetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6F084-01C5-4482-AA95-AFDC17263A22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C87D6-D589-4DAE-976F-081BEDD1EC18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1020" windowWidth="22155" windowHeight="13800" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,20 +19,12 @@
     <sheet name="Bid Breakdown" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="154">
   <si>
     <t>tblAdditionalInfo</t>
   </si>
@@ -442,6 +434,9 @@
     <t xml:space="preserve"> || DAS Life Safety System</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t xml:space="preserve"> || Access Control Rough-In</t>
   </si>
   <si>
@@ -490,7 +485,7 @@
     <t>Revised Totals</t>
   </si>
   <si>
-    <t>Tenant Improvement</t>
+    <t>Office</t>
   </si>
 </sst>
 </file>
@@ -1735,9 +1730,7 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1769,12 +1762,11 @@
     <col min="28" max="28" width="21.28515625" style="6" customWidth="1"/>
     <col min="29" max="29" width="16" style="6" customWidth="1"/>
     <col min="30" max="30" width="87.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -1949,12 +1941,10 @@
         <v>0</v>
       </c>
       <c r="AE3" s="7">
-        <f t="shared" ref="AE3:AE49" si="0">Q3/P3</f>
         <v>78.774193213494343</v>
       </c>
       <c r="AF3" s="7">
-        <f t="shared" ref="AF3:AF49" si="1">D3/I3</f>
-        <v>120.61735920658819</v>
+        <v>120.6173592065882</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -2007,12 +1997,10 @@
         <v>106</v>
       </c>
       <c r="AE4" s="7">
-        <f t="shared" si="0"/>
         <v>86.043508271915556</v>
       </c>
       <c r="AF4" s="7">
-        <f t="shared" si="1"/>
-        <v>126.67032063579063</v>
+        <v>126.6703206357906</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -2065,12 +2053,10 @@
         <v>106</v>
       </c>
       <c r="AE5" s="7">
-        <f t="shared" si="0"/>
         <v>92.610434854451825</v>
       </c>
       <c r="AF5" s="7">
-        <f t="shared" si="1"/>
-        <v>128.22981888473336</v>
+        <v>128.22981888473339</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -2123,12 +2109,10 @@
         <v>106</v>
       </c>
       <c r="AE6" s="7">
-        <f t="shared" si="0"/>
         <v>79.214927383628833</v>
       </c>
       <c r="AF6" s="7">
-        <f t="shared" si="1"/>
-        <v>121.40286758504358</v>
+        <v>121.40286758504359</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -2181,12 +2165,10 @@
         <v>106</v>
       </c>
       <c r="AE7" s="7">
-        <f t="shared" si="0"/>
         <v>76.396298267884205</v>
       </c>
       <c r="AF7" s="7">
-        <f t="shared" si="1"/>
-        <v>112.61707006369427</v>
+        <v>112.6170700636943</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -2242,12 +2224,10 @@
         <v>106</v>
       </c>
       <c r="AE8" s="7">
-        <f t="shared" si="0"/>
         <v>76.465184806425654</v>
       </c>
       <c r="AF8" s="7">
-        <f t="shared" si="1"/>
-        <v>113.01288864272564</v>
+        <v>113.0128886427256</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -2300,12 +2280,10 @@
         <v>106</v>
       </c>
       <c r="AE9" s="7">
-        <f t="shared" si="0"/>
         <v>80.780436771428015</v>
       </c>
       <c r="AF9" s="7">
-        <f t="shared" si="1"/>
-        <v>123.44973591855722</v>
+        <v>123.4497359185572</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -2358,12 +2336,10 @@
         <v>106</v>
       </c>
       <c r="AE10" s="7">
-        <f t="shared" si="0"/>
         <v>76.587175792507196</v>
       </c>
       <c r="AF10" s="7">
-        <f t="shared" si="1"/>
-        <v>113.70558375634516</v>
+        <v>113.70558375634521</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -2419,12 +2395,10 @@
         <v>106</v>
       </c>
       <c r="AE11" s="7">
-        <f t="shared" si="0"/>
         <v>78.943207307954879</v>
       </c>
       <c r="AF11" s="7">
-        <f t="shared" si="1"/>
-        <v>120.93190687659803</v>
+        <v>120.93190687659801</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -2477,12 +2451,10 @@
         <v>106</v>
       </c>
       <c r="AE12" s="7">
-        <f t="shared" si="0"/>
         <v>86.975069825178437</v>
       </c>
       <c r="AF12" s="7">
-        <f t="shared" si="1"/>
-        <v>126.97925939113405</v>
+        <v>126.97925939113409</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -2535,12 +2507,10 @@
         <v>106</v>
       </c>
       <c r="AE13" s="7">
-        <f t="shared" si="0"/>
         <v>81.764366006479307</v>
       </c>
       <c r="AF13" s="7">
-        <f t="shared" si="1"/>
-        <v>124.35229494460478</v>
+        <v>124.35229494460479</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -2593,12 +2563,10 @@
         <v>106</v>
       </c>
       <c r="AE14" s="7">
-        <f t="shared" si="0"/>
         <v>85.448853615520278</v>
       </c>
       <c r="AF14" s="7">
-        <f t="shared" si="1"/>
-        <v>126.43055259227651</v>
+        <v>126.4305525922765</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -2651,12 +2619,10 @@
         <v>106</v>
       </c>
       <c r="AE15" s="7">
-        <f t="shared" si="0"/>
         <v>86.450630559018833</v>
       </c>
       <c r="AF15" s="7">
-        <f t="shared" si="1"/>
-        <v>126.80738100843475</v>
+        <v>126.8073810084347</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -2712,12 +2678,10 @@
         <v>106</v>
       </c>
       <c r="AE16" s="7">
-        <f t="shared" si="0"/>
         <v>80.058615800311983</v>
       </c>
       <c r="AF16" s="7">
-        <f t="shared" si="1"/>
-        <v>122.62227579070196</v>
+        <v>122.62227579070201</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.2">
@@ -2770,12 +2734,10 @@
         <v>106</v>
       </c>
       <c r="AE17" s="7">
-        <f t="shared" si="0"/>
         <v>79.284730650256009</v>
       </c>
       <c r="AF17" s="7">
-        <f t="shared" si="1"/>
-        <v>121.51630022744504</v>
+        <v>121.516300227445</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.2">
@@ -2828,12 +2790,10 @@
         <v>106</v>
       </c>
       <c r="AE18" s="7">
-        <f t="shared" si="0"/>
         <v>81.350951974992896</v>
       </c>
       <c r="AF18" s="7">
-        <f t="shared" si="1"/>
-        <v>123.99966893583563</v>
+        <v>123.9996689358356</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.2">
@@ -2889,12 +2849,10 @@
         <v>106</v>
       </c>
       <c r="AE19" s="7">
-        <f t="shared" si="0"/>
         <v>76.387777476032184</v>
       </c>
       <c r="AF19" s="7">
-        <f t="shared" si="1"/>
-        <v>112.56560252872298</v>
+        <v>112.56560252872301</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.2">
@@ -2950,12 +2908,10 @@
         <v>106</v>
       </c>
       <c r="AE20" s="7">
-        <f t="shared" si="0"/>
         <v>79.121299918554826</v>
       </c>
       <c r="AF20" s="7">
-        <f t="shared" si="1"/>
-        <v>121.24534369556478</v>
+        <v>121.2453436955648</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.2">
@@ -3011,12 +2967,10 @@
         <v>106</v>
       </c>
       <c r="AE21" s="7">
-        <f t="shared" si="0"/>
         <v>80.259442671447232</v>
       </c>
       <c r="AF21" s="7">
-        <f t="shared" si="1"/>
-        <v>122.86952724285977</v>
+        <v>122.8695272428598</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.2">
@@ -3072,12 +3026,10 @@
         <v>106</v>
       </c>
       <c r="AE22" s="7">
-        <f t="shared" si="0"/>
         <v>77.006585760793541</v>
       </c>
       <c r="AF22" s="7">
-        <f t="shared" si="1"/>
-        <v>115.62997852549033</v>
+        <v>115.6299785254903</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.2">
@@ -3133,12 +3085,10 @@
         <v>106</v>
       </c>
       <c r="AE23" s="7">
-        <f t="shared" si="0"/>
         <v>76.562596775518713</v>
       </c>
       <c r="AF23" s="7">
-        <f t="shared" si="1"/>
-        <v>113.54629006949114</v>
+        <v>113.54629006949111</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.2">
@@ -3191,12 +3141,10 @@
         <v>106</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" si="0"/>
         <v>77.994810724502685</v>
       </c>
       <c r="AF24" s="7">
-        <f t="shared" si="1"/>
-        <v>118.86963696369637</v>
+        <v>118.86963696369639</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.2">
@@ -3252,12 +3200,10 @@
         <v>106</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" si="0"/>
         <v>78.654322019063997</v>
       </c>
       <c r="AF25" s="7">
-        <f t="shared" si="1"/>
-        <v>120.38070460704608</v>
+        <v>120.3807046070461</v>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.2">
@@ -3310,12 +3256,10 @@
         <v>106</v>
       </c>
       <c r="AE26" s="7">
-        <f t="shared" si="0"/>
         <v>79.772384378251161</v>
       </c>
       <c r="AF26" s="7">
-        <f t="shared" si="1"/>
-        <v>122.24481299007704</v>
+        <v>122.24481299007699</v>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.2">
@@ -3368,12 +3312,10 @@
         <v>106</v>
       </c>
       <c r="AE27" s="7">
-        <f t="shared" si="0"/>
         <v>82.589668783250389</v>
       </c>
       <c r="AF27" s="7">
-        <f t="shared" si="1"/>
-        <v>124.96867469879517</v>
+        <v>124.9686746987952</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.2">
@@ -3426,11 +3368,9 @@
         <v>106</v>
       </c>
       <c r="AE28" s="7">
-        <f t="shared" si="0"/>
         <v>76.93010474893137</v>
       </c>
       <c r="AF28" s="7">
-        <f t="shared" si="1"/>
         <v>115.3104483211405</v>
       </c>
     </row>
@@ -3484,12 +3424,10 @@
         <v>106</v>
       </c>
       <c r="AE29" s="7">
-        <f t="shared" si="0"/>
         <v>77.044125730848023</v>
       </c>
       <c r="AF29" s="7">
-        <f t="shared" si="1"/>
-        <v>115.78445359311947</v>
+        <v>115.78445359311949</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
@@ -3545,12 +3483,10 @@
         <v>106</v>
       </c>
       <c r="AE30" s="7">
-        <f t="shared" si="0"/>
         <v>78.500083258761464</v>
       </c>
       <c r="AF30" s="7">
-        <f t="shared" si="1"/>
-        <v>120.06241742220604</v>
+        <v>120.062417422206</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
@@ -3603,12 +3539,10 @@
         <v>106</v>
       </c>
       <c r="AE31" s="7">
-        <f t="shared" si="0"/>
         <v>77.116099241185211</v>
       </c>
       <c r="AF31" s="7">
-        <f t="shared" si="1"/>
-        <v>116.07243319268636</v>
+        <v>116.0724331926864</v>
       </c>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
@@ -3661,12 +3595,10 @@
         <v>106</v>
       </c>
       <c r="AE32" s="7">
-        <f t="shared" si="0"/>
         <v>81.371504660452729</v>
       </c>
       <c r="AF32" s="7">
-        <f t="shared" si="1"/>
-        <v>124.01159980666988</v>
+        <v>124.01159980666991</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
@@ -3685,18 +3617,16 @@
       <c r="AD33" t="s">
         <v>106</v>
       </c>
-      <c r="AE33" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF33" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AE33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2">
         <v>26898.36</v>
@@ -3744,17 +3674,15 @@
         <v>106</v>
       </c>
       <c r="AE34" s="7">
-        <f t="shared" si="0"/>
         <v>76.396627105938862</v>
       </c>
       <c r="AF34" s="7">
-        <f t="shared" si="1"/>
-        <v>112.62091668776907</v>
+        <v>112.6209166877691</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2">
         <v>16298.61</v>
@@ -3802,17 +3730,15 @@
         <v>106</v>
       </c>
       <c r="AE35" s="7">
-        <f t="shared" si="0"/>
         <v>76.812583782550405</v>
       </c>
       <c r="AF35" s="7">
-        <f t="shared" si="1"/>
-        <v>114.78072651985697</v>
+        <v>114.780726519857</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2">
         <v>119556.31</v>
@@ -3826,18 +3752,16 @@
       <c r="AD36" t="s">
         <v>106</v>
       </c>
-      <c r="AE36" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF36" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AE36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF36" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C37" s="2">
         <v>120.99</v>
@@ -3909,12 +3833,10 @@
         <v>0</v>
       </c>
       <c r="AE37" s="7">
-        <f t="shared" si="0"/>
         <v>73.228285933896998</v>
       </c>
-      <c r="AF37" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF37" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -3943,20 +3865,18 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="AD38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE38" s="7">
-        <f t="shared" si="0"/>
         <v>73.228285933896998</v>
       </c>
-      <c r="AF38" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF38" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2">
         <v>1011.32</v>
@@ -4028,12 +3948,10 @@
         <v>0</v>
       </c>
       <c r="AE39" s="7">
-        <f t="shared" si="0"/>
         <v>73.226911976911992</v>
       </c>
-      <c r="AF39" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF39" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
@@ -4062,20 +3980,18 @@
         <v>74.91</v>
       </c>
       <c r="AD40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AE40" s="7">
-        <f t="shared" si="0"/>
         <v>73.226911976911992</v>
       </c>
-      <c r="AF40" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF40" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" s="2">
         <v>693.46</v>
@@ -4147,12 +4063,10 @@
         <v>0</v>
       </c>
       <c r="AE41" s="7">
-        <f t="shared" si="0"/>
         <v>73.227459016393439</v>
       </c>
-      <c r="AF41" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF41" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
@@ -4181,20 +4095,18 @@
         <v>51.37</v>
       </c>
       <c r="AD42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE42" s="7">
-        <f t="shared" si="0"/>
         <v>73.227459016393439</v>
       </c>
-      <c r="AF42" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF42" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43" s="2">
         <v>-35678.730000000003</v>
@@ -4266,12 +4178,10 @@
         <v>0</v>
       </c>
       <c r="AE43" s="7">
-        <f t="shared" si="0"/>
         <v>73.227184230431646</v>
       </c>
-      <c r="AF43" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF43" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -4300,20 +4210,18 @@
         <v>-2642.87</v>
       </c>
       <c r="AD44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE44" s="7">
-        <f t="shared" si="0"/>
         <v>73.227184230431646</v>
       </c>
-      <c r="AF44" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF44" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45" s="2">
         <v>135355.04</v>
@@ -4385,12 +4293,10 @@
         <v>0</v>
       </c>
       <c r="AE45" s="7">
-        <f t="shared" si="0"/>
         <v>73.227188952663354</v>
       </c>
-      <c r="AF45" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF45" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
@@ -4419,15 +4325,13 @@
         <v>3164.87</v>
       </c>
       <c r="AD46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AE46" s="7">
-        <f t="shared" si="0"/>
         <v>73.22718665264874</v>
       </c>
-      <c r="AF46" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF46" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
@@ -4456,20 +4360,18 @@
         <v>6861.43</v>
       </c>
       <c r="AD47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AE47" s="7">
-        <f t="shared" si="0"/>
         <v>73.227190003695611</v>
       </c>
-      <c r="AF47" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF47" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2">
         <v>-50548.75</v>
@@ -4541,12 +4443,10 @@
         <v>0</v>
       </c>
       <c r="AE48" s="7">
-        <f t="shared" si="0"/>
         <v>73.227193926210603</v>
       </c>
-      <c r="AF48" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF48" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.2">
@@ -4575,20 +4475,18 @@
         <v>-3744.35</v>
       </c>
       <c r="AD49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE49" s="7">
-        <f t="shared" si="0"/>
         <v>73.227193926210603</v>
       </c>
-      <c r="AF49" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="AF49" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C50" s="2">
         <v>6317922.71</v>
@@ -4637,6 +4535,12 @@
       </c>
       <c r="W50" s="4">
         <v>467994.2</v>
+      </c>
+      <c r="AE50">
+        <v>78.640997656635847</v>
+      </c>
+      <c r="AF50">
+        <v>112.1085158555998</v>
       </c>
     </row>
   </sheetData>
